--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_14_23.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_14_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-58524.60478390256</v>
+        <v>-59202.42546417395</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>313298.4515052317</v>
+        <v>313298.4515052314</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058542</v>
+        <v>632041.4518058543</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>107.5010219193908</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>79.46458862645864</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>28.03643329293229</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
     </row>
     <row r="12">
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>67.94110309189327</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1461,10 +1461,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>38.46421129577596</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1503,13 +1503,13 @@
         <v>20.56530653072803</v>
       </c>
       <c r="U12" t="n">
-        <v>122.0492982736046</v>
+        <v>42.84521610603982</v>
       </c>
       <c r="V12" t="n">
         <v>46.2664452405476</v>
       </c>
       <c r="W12" t="n">
-        <v>72.32210790215694</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="X12" t="n">
         <v>22.93043876461596</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>8.831062059420567</v>
+        <v>8.831062059420569</v>
       </c>
       <c r="S13" t="n">
         <v>40.97168601871269</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,16 +1613,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="G14" t="n">
-        <v>74.61102257775883</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>46.57458928482654</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>32.88999934163198</v>
+        <v>32.88999934163207</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>28.03643329293229</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>62.45074696101209</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>51.93274503525223</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>65.73554842808872</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="T15" t="n">
-        <v>122.0492982736046</v>
+        <v>20.56530653072803</v>
       </c>
       <c r="U15" t="n">
-        <v>42.84521610603974</v>
+        <v>42.84521610603982</v>
       </c>
       <c r="V15" t="n">
-        <v>122.0492982736046</v>
+        <v>46.2664452405476</v>
       </c>
       <c r="W15" t="n">
-        <v>72.32210790215686</v>
+        <v>72.32210790215694</v>
       </c>
       <c r="X15" t="n">
-        <v>22.93043876461587</v>
+        <v>22.93043876461596</v>
       </c>
       <c r="Y15" t="n">
-        <v>29.00181045917088</v>
+        <v>29.00181045917097</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>8.831062059420482</v>
+        <v>8.831062059420569</v>
       </c>
       <c r="S16" t="n">
-        <v>40.9716860187126</v>
+        <v>40.97168601871269</v>
       </c>
       <c r="T16" t="n">
-        <v>29.35851686199503</v>
+        <v>29.35851686199511</v>
       </c>
       <c r="U16" t="n">
-        <v>94.27381875013462</v>
+        <v>94.27381875013471</v>
       </c>
       <c r="V16" t="n">
-        <v>50.72653950959517</v>
+        <v>50.72653950959526</v>
       </c>
       <c r="W16" t="n">
-        <v>95.92823141448059</v>
+        <v>95.92823141448068</v>
       </c>
       <c r="X16" t="n">
-        <v>27.5369797333878</v>
+        <v>27.53697973338788</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.75879713931369</v>
+        <v>22.75879713931377</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>53.20745676868142</v>
+        <v>53.20745676868131</v>
       </c>
       <c r="C17" t="n">
-        <v>29.32571377202692</v>
+        <v>29.3257137720268</v>
       </c>
       <c r="D17" t="n">
-        <v>16.89237603307538</v>
+        <v>16.89237603307527</v>
       </c>
       <c r="E17" t="n">
-        <v>50.59912845248425</v>
+        <v>50.59912845248414</v>
       </c>
       <c r="F17" t="n">
-        <v>82.31946603086158</v>
+        <v>82.31946603086146</v>
       </c>
       <c r="G17" t="n">
-        <v>97.94765892927455</v>
+        <v>97.94765892927444</v>
       </c>
       <c r="H17" t="n">
-        <v>26.03172204233391</v>
+        <v>26.0317220423338</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>17.01668021661499</v>
+        <v>17.01668021661487</v>
       </c>
       <c r="X17" t="n">
-        <v>38.90293068555422</v>
+        <v>38.90293068555411</v>
       </c>
       <c r="Y17" t="n">
-        <v>61.40578380929799</v>
+        <v>61.40578380929787</v>
       </c>
     </row>
     <row r="18">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>55.56827688413877</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1932,10 +1932,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>51.93274503525223</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,25 +1968,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>107.5010219193909</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="X18" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>53.20745676868131</v>
+        <v>53.20745676868142</v>
       </c>
       <c r="C20" t="n">
-        <v>29.3257137720268</v>
+        <v>29.32571377202692</v>
       </c>
       <c r="D20" t="n">
-        <v>16.89237603307527</v>
+        <v>16.89237603307553</v>
       </c>
       <c r="E20" t="n">
-        <v>50.59912845248414</v>
+        <v>50.59912845248425</v>
       </c>
       <c r="F20" t="n">
-        <v>82.31946603086202</v>
+        <v>82.31946603086158</v>
       </c>
       <c r="G20" t="n">
-        <v>97.94765892927444</v>
+        <v>97.94765892927452</v>
       </c>
       <c r="H20" t="n">
-        <v>26.0317220423338</v>
+        <v>26.03172204233391</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="W20" t="n">
-        <v>17.01668021661487</v>
+        <v>17.01668021661499</v>
       </c>
       <c r="X20" t="n">
-        <v>38.90293068555411</v>
+        <v>38.90293068555422</v>
       </c>
       <c r="Y20" t="n">
-        <v>61.40578380929787</v>
+        <v>61.40578380929799</v>
       </c>
     </row>
     <row r="21">
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>51.93274503525223</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,16 +2205,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>55.5682768841388</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>107.5010219193909</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
     </row>
     <row r="22">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>53.20745676868131</v>
+        <v>53.20745676868142</v>
       </c>
       <c r="C23" t="n">
-        <v>29.3257137720268</v>
+        <v>29.32571377202692</v>
       </c>
       <c r="D23" t="n">
-        <v>16.89237603307527</v>
+        <v>16.89237603307538</v>
       </c>
       <c r="E23" t="n">
-        <v>50.59912845248414</v>
+        <v>50.59912845248425</v>
       </c>
       <c r="F23" t="n">
-        <v>82.31946603086146</v>
+        <v>82.31946603086158</v>
       </c>
       <c r="G23" t="n">
-        <v>97.94765892927444</v>
+        <v>97.94765892927452</v>
       </c>
       <c r="H23" t="n">
-        <v>26.0317220423338</v>
+        <v>26.03172204233391</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="W23" t="n">
-        <v>17.01668021661487</v>
+        <v>17.01668021661499</v>
       </c>
       <c r="X23" t="n">
-        <v>38.90293068555411</v>
+        <v>38.90293068555422</v>
       </c>
       <c r="Y23" t="n">
-        <v>61.40578380929787</v>
+        <v>61.40578380929799</v>
       </c>
     </row>
     <row r="24">
@@ -2400,25 +2400,25 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>107.5010219193909</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>64.31525006275676</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>107.1657389737211</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>51.93274503525223</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2439,13 +2439,13 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.136586121265623</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2457,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>161.170083129693</v>
+        <v>161.1700831296931</v>
       </c>
       <c r="C26" t="n">
-        <v>137.2883401330385</v>
+        <v>137.2883401330386</v>
       </c>
       <c r="D26" t="n">
-        <v>124.8550023940869</v>
+        <v>124.855002394087</v>
       </c>
       <c r="E26" t="n">
-        <v>158.5617548134958</v>
+        <v>158.5617548134959</v>
       </c>
       <c r="F26" t="n">
-        <v>190.2820923918731</v>
+        <v>190.2820923918732</v>
       </c>
       <c r="G26" t="n">
-        <v>205.9102852902861</v>
+        <v>205.9102852902862</v>
       </c>
       <c r="H26" t="n">
-        <v>133.9943484033455</v>
+        <v>133.9943484033456</v>
       </c>
       <c r="I26" t="n">
-        <v>27.67892728751258</v>
+        <v>27.67892728751267</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.35531776834637</v>
+        <v>14.35531776834646</v>
       </c>
       <c r="T26" t="n">
-        <v>9.501751719646599</v>
+        <v>9.501751719646684</v>
       </c>
       <c r="U26" t="n">
-        <v>37.23252581057164</v>
+        <v>37.23252581057173</v>
       </c>
       <c r="V26" t="n">
-        <v>107.9626263610117</v>
+        <v>107.9626263610118</v>
       </c>
       <c r="W26" t="n">
-        <v>124.9793065776265</v>
+        <v>124.9793065776266</v>
       </c>
       <c r="X26" t="n">
-        <v>146.8655570465658</v>
+        <v>146.8655570465659</v>
       </c>
       <c r="Y26" t="n">
-        <v>169.3684101703095</v>
+        <v>169.3684101703096</v>
       </c>
     </row>
     <row r="27">
@@ -2646,10 +2646,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>148.7388631915159</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>53.63189500685843</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.136586121265623</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -2688,19 +2688,19 @@
         <v>214.9477822055827</v>
       </c>
       <c r="U27" t="n">
-        <v>24.31053453275413</v>
+        <v>237.2276917808945</v>
       </c>
       <c r="V27" t="n">
-        <v>240.6489209154022</v>
+        <v>27.73176366726199</v>
       </c>
       <c r="W27" t="n">
-        <v>262.2947706485116</v>
+        <v>53.78742632887133</v>
       </c>
       <c r="X27" t="n">
-        <v>4.395757191330262</v>
+        <v>4.395757191330347</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.46712888588527</v>
+        <v>10.46712888588536</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.43700444542699</v>
+        <v>22.43700444542708</v>
       </c>
       <c r="T28" t="n">
-        <v>10.82383528870942</v>
+        <v>10.8238352887095</v>
       </c>
       <c r="U28" t="n">
-        <v>75.73913717684901</v>
+        <v>75.7391371768491</v>
       </c>
       <c r="V28" t="n">
-        <v>32.19185793630956</v>
+        <v>32.19185793630965</v>
       </c>
       <c r="W28" t="n">
-        <v>77.39354984119498</v>
+        <v>77.39354984119507</v>
       </c>
       <c r="X28" t="n">
-        <v>9.002298160102185</v>
+        <v>9.002298160102271</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.224115566028075</v>
+        <v>4.224115566028161</v>
       </c>
     </row>
     <row r="29">
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.35531776834645</v>
+        <v>14.35531776834646</v>
       </c>
       <c r="T29" t="n">
-        <v>9.501751719646677</v>
+        <v>9.501751719646684</v>
       </c>
       <c r="U29" t="n">
         <v>37.23252581057173</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>125.6800758778345</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>107.1657389737211</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>134.3633376148752</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>2.030624957442418</v>
+        <v>214.9477822055827</v>
       </c>
       <c r="U30" t="n">
         <v>24.31053453275421</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>27.73176366726199</v>
       </c>
       <c r="W30" t="n">
-        <v>56.34507528401353</v>
+        <v>53.78742632887133</v>
       </c>
       <c r="X30" t="n">
         <v>4.395757191330347</v>
       </c>
       <c r="Y30" t="n">
-        <v>10.46712888588536</v>
+        <v>199.0458156021099</v>
       </c>
     </row>
     <row r="31">
@@ -3032,7 +3032,7 @@
         <v>137.2883401330386</v>
       </c>
       <c r="D32" t="n">
-        <v>124.855002394087</v>
+        <v>124.8550023940871</v>
       </c>
       <c r="E32" t="n">
         <v>158.5617548134959</v>
@@ -3047,7 +3047,7 @@
         <v>133.9943484033456</v>
       </c>
       <c r="I32" t="n">
-        <v>27.67892728751267</v>
+        <v>27.6789272875127</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.35531776834646</v>
+        <v>14.35531776834649</v>
       </c>
       <c r="T32" t="n">
-        <v>9.501751719646684</v>
+        <v>9.501751719646713</v>
       </c>
       <c r="U32" t="n">
-        <v>37.23252581057173</v>
+        <v>37.23252581057176</v>
       </c>
       <c r="V32" t="n">
         <v>107.9626263610118</v>
       </c>
       <c r="W32" t="n">
-        <v>124.9793065776266</v>
+        <v>124.9793065776267</v>
       </c>
       <c r="X32" t="n">
         <v>146.8655570465659</v>
       </c>
       <c r="Y32" t="n">
-        <v>169.3684101703096</v>
+        <v>169.3684101703097</v>
       </c>
     </row>
     <row r="33">
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3114,13 +3114,13 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>148.7388631915159</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3150,31 +3150,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.136586121265619</v>
+        <v>6.136586121265623</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>214.9477822055827</v>
+        <v>2.030624957442446</v>
       </c>
       <c r="U33" t="n">
-        <v>49.93079833346275</v>
+        <v>24.31053453275424</v>
       </c>
       <c r="V33" t="n">
-        <v>27.73176366726199</v>
+        <v>27.73176366726202</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7045835770116</v>
+        <v>53.78742632887136</v>
       </c>
       <c r="X33" t="n">
-        <v>4.395757191330347</v>
+        <v>177.6710572397943</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.46712888588536</v>
+        <v>10.46712888588539</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.43700444542708</v>
+        <v>22.43700444542711</v>
       </c>
       <c r="T34" t="n">
-        <v>10.8238352887095</v>
+        <v>10.82383528870953</v>
       </c>
       <c r="U34" t="n">
-        <v>75.7391371768491</v>
+        <v>75.73913717684913</v>
       </c>
       <c r="V34" t="n">
-        <v>32.19185793630965</v>
+        <v>32.19185793630967</v>
       </c>
       <c r="W34" t="n">
-        <v>77.39354984119507</v>
+        <v>77.3935498411951</v>
       </c>
       <c r="X34" t="n">
-        <v>9.002298160102271</v>
+        <v>9.002298160102299</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.224115566028161</v>
+        <v>4.224115566028189</v>
       </c>
     </row>
     <row r="35">
@@ -3342,22 +3342,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>84.47631975681317</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>67.76195729755065</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J36" t="n">
-        <v>51.93274503525224</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.136586121265633</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -3396,16 +3396,16 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.9477822055827</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>18.61134966514643</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3582,25 +3582,25 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>24.55392564694451</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>125.6800758778345</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>107.1657389737211</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>134.3633376148752</v>
       </c>
       <c r="S39" t="n">
-        <v>184.1694013477794</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>18.61134966514643</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.553598523059058</v>
+        <v>9.553598523059065</v>
       </c>
       <c r="V41" t="n">
         <v>80.28369907349909</v>
@@ -3819,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>150.0844617268636</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3867,22 +3867,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>191.4841495043256</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.9477822055827</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>237.2276917808945</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0.05283637974932276</v>
       </c>
       <c r="W42" t="n">
         <v>26.10849904135867</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>129.989221780365</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3989,7 +3989,7 @@
         <v>162.6031651043606</v>
       </c>
       <c r="G44" t="n">
-        <v>178.2313580027735</v>
+        <v>178.2313580027732</v>
       </c>
       <c r="H44" t="n">
         <v>106.3154211158329</v>
@@ -4053,13 +4053,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>51.93274503525223</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4104,22 +4104,22 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>191.4841495043256</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.2276917808945</v>
       </c>
       <c r="V45" t="n">
-        <v>0.05283637974932276</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>26.10849904135867</v>
+        <v>227.2555366479172</v>
       </c>
       <c r="X45" t="n">
-        <v>203.4965999797882</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>241.6329541578434</v>
+        <v>336.5954440373106</v>
       </c>
       <c r="C11" t="n">
-        <v>241.6329541578434</v>
+        <v>336.5954440373106</v>
       </c>
       <c r="D11" t="n">
-        <v>133.0460633301758</v>
+        <v>336.5954440373106</v>
       </c>
       <c r="E11" t="n">
-        <v>9.763943861888364</v>
+        <v>213.3133245690231</v>
       </c>
       <c r="F11" t="n">
-        <v>9.763943861888364</v>
+        <v>213.3133245690231</v>
       </c>
       <c r="G11" t="n">
-        <v>9.763943861888364</v>
+        <v>133.0460633301759</v>
       </c>
       <c r="H11" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="I11" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="J11" t="n">
-        <v>9.763943861888364</v>
+        <v>127.0904160344399</v>
       </c>
       <c r="K11" t="n">
-        <v>130.5927491527569</v>
+        <v>205.5639978758776</v>
       </c>
       <c r="L11" t="n">
-        <v>178.9899996397442</v>
+        <v>253.9612483628649</v>
       </c>
       <c r="M11" t="n">
-        <v>299.8188049306127</v>
+        <v>374.7900536537335</v>
       </c>
       <c r="N11" t="n">
-        <v>420.6476102214812</v>
+        <v>452.0134566452385</v>
       </c>
       <c r="O11" t="n">
-        <v>488.1971930944183</v>
+        <v>488.0239675444187</v>
       </c>
       <c r="P11" t="n">
-        <v>488.1971930944183</v>
+        <v>488.0239675444187</v>
       </c>
       <c r="Q11" t="n">
-        <v>488.1971930944183</v>
+        <v>488.0239675444187</v>
       </c>
       <c r="R11" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="S11" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="T11" t="n">
-        <v>488.1971930944183</v>
+        <v>459.8775635055981</v>
       </c>
       <c r="U11" t="n">
-        <v>488.1971930944183</v>
+        <v>459.8775635055981</v>
       </c>
       <c r="V11" t="n">
-        <v>488.1971930944183</v>
+        <v>459.8775635055981</v>
       </c>
       <c r="W11" t="n">
-        <v>364.9150736261308</v>
+        <v>459.8775635055981</v>
       </c>
       <c r="X11" t="n">
-        <v>364.9150736261308</v>
+        <v>459.8775635055981</v>
       </c>
       <c r="Y11" t="n">
-        <v>364.9150736261308</v>
+        <v>336.5954440373106</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>171.8988020127778</v>
+        <v>201.6734401906742</v>
       </c>
       <c r="C12" t="n">
-        <v>171.8988020127778</v>
+        <v>201.6734401906742</v>
       </c>
       <c r="D12" t="n">
-        <v>171.8988020127778</v>
+        <v>133.0460633301759</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8988020127778</v>
+        <v>133.0460633301759</v>
       </c>
       <c r="F12" t="n">
-        <v>171.8988020127778</v>
+        <v>133.0460633301759</v>
       </c>
       <c r="G12" t="n">
-        <v>48.61668254449035</v>
+        <v>133.0460633301759</v>
       </c>
       <c r="H12" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="I12" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="J12" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K12" t="n">
-        <v>48.64509028167978</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="L12" t="n">
-        <v>167.2121322091852</v>
+        <v>41.00029403282564</v>
       </c>
       <c r="M12" t="n">
-        <v>288.0409375000537</v>
+        <v>161.8290993236943</v>
       </c>
       <c r="N12" t="n">
-        <v>408.8697427909222</v>
+        <v>282.6579046145629</v>
       </c>
       <c r="O12" t="n">
-        <v>408.8697427909222</v>
+        <v>403.4867099054315</v>
       </c>
       <c r="P12" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="Q12" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="R12" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="S12" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="T12" t="n">
-        <v>467.424156194693</v>
+        <v>467.4241561946934</v>
       </c>
       <c r="U12" t="n">
-        <v>344.1420367264055</v>
+        <v>424.1461601279865</v>
       </c>
       <c r="V12" t="n">
-        <v>297.4082536551454</v>
+        <v>377.4123770567263</v>
       </c>
       <c r="W12" t="n">
-        <v>224.3556194105424</v>
+        <v>254.1302575884388</v>
       </c>
       <c r="X12" t="n">
-        <v>201.1935600523444</v>
+        <v>230.9681982302408</v>
       </c>
       <c r="Y12" t="n">
-        <v>171.8988020127778</v>
+        <v>201.6734401906742</v>
       </c>
     </row>
     <row r="13">
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.36184332167606</v>
+        <v>26.36184332167607</v>
       </c>
       <c r="C13" t="n">
-        <v>26.36184332167606</v>
+        <v>26.36184332167607</v>
       </c>
       <c r="D13" t="n">
-        <v>75.06967049157856</v>
+        <v>26.36184332167607</v>
       </c>
       <c r="E13" t="n">
-        <v>75.06967049157856</v>
+        <v>26.36184332167607</v>
       </c>
       <c r="F13" t="n">
-        <v>129.9707080134225</v>
+        <v>26.36184332167607</v>
       </c>
       <c r="G13" t="n">
-        <v>129.9707080134225</v>
+        <v>26.36184332167607</v>
       </c>
       <c r="H13" t="n">
-        <v>129.9707080134225</v>
+        <v>26.36184332167607</v>
       </c>
       <c r="I13" t="n">
-        <v>129.9707080134225</v>
+        <v>26.36184332167607</v>
       </c>
       <c r="J13" t="n">
-        <v>129.9707080134225</v>
+        <v>26.36184332167607</v>
       </c>
       <c r="K13" t="n">
-        <v>142.2332337721116</v>
+        <v>26.36184332167607</v>
       </c>
       <c r="L13" t="n">
-        <v>142.2332337721116</v>
+        <v>26.36184332167607</v>
       </c>
       <c r="M13" t="n">
-        <v>263.0620390629801</v>
+        <v>147.1906486125447</v>
       </c>
       <c r="N13" t="n">
-        <v>263.0620390629801</v>
+        <v>263.06203906298</v>
       </c>
       <c r="O13" t="n">
-        <v>383.8908443538486</v>
+        <v>263.06203906298</v>
       </c>
       <c r="P13" t="n">
         <v>383.8908443538486</v>
@@ -5236,13 +5236,13 @@
         <v>157.4649623337897</v>
       </c>
       <c r="W13" t="n">
-        <v>60.56775888481933</v>
+        <v>60.56775888481934</v>
       </c>
       <c r="X13" t="n">
-        <v>32.75262784099318</v>
+        <v>32.7526278409932</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>208.4107326006393</v>
+        <v>180.0911030118189</v>
       </c>
       <c r="C14" t="n">
-        <v>208.4107326006393</v>
+        <v>180.0911030118189</v>
       </c>
       <c r="D14" t="n">
-        <v>208.4107326006393</v>
+        <v>180.0911030118189</v>
       </c>
       <c r="E14" t="n">
-        <v>85.12861313235183</v>
+        <v>180.0911030118189</v>
       </c>
       <c r="F14" t="n">
-        <v>85.12861313235183</v>
+        <v>56.80898354353134</v>
       </c>
       <c r="G14" t="n">
-        <v>9.763943861888364</v>
+        <v>56.80898354353134</v>
       </c>
       <c r="H14" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="I14" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="J14" t="n">
-        <v>127.09041603444</v>
+        <v>127.0904160344399</v>
       </c>
       <c r="K14" t="n">
-        <v>127.09041603444</v>
+        <v>127.0904160344399</v>
       </c>
       <c r="L14" t="n">
-        <v>207.2445332589278</v>
+        <v>175.4876665214273</v>
       </c>
       <c r="M14" t="n">
-        <v>289.9717592620447</v>
+        <v>258.2148925245442</v>
       </c>
       <c r="N14" t="n">
-        <v>367.1951622535497</v>
+        <v>347.4154734964513</v>
       </c>
       <c r="O14" t="n">
-        <v>488.0239675444182</v>
+        <v>383.4259843956315</v>
       </c>
       <c r="P14" t="n">
-        <v>488.0239675444182</v>
+        <v>383.4259843956315</v>
       </c>
       <c r="Q14" t="n">
-        <v>488.0239675444182</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="R14" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="S14" t="n">
-        <v>454.9749715372142</v>
+        <v>454.9749715372146</v>
       </c>
       <c r="T14" t="n">
-        <v>454.9749715372142</v>
+        <v>426.655341948394</v>
       </c>
       <c r="U14" t="n">
-        <v>454.9749715372142</v>
+        <v>426.655341948394</v>
       </c>
       <c r="V14" t="n">
-        <v>454.9749715372142</v>
+        <v>426.655341948394</v>
       </c>
       <c r="W14" t="n">
-        <v>454.9749715372142</v>
+        <v>426.655341948394</v>
       </c>
       <c r="X14" t="n">
-        <v>331.6928520689268</v>
+        <v>303.3732224801065</v>
       </c>
       <c r="Y14" t="n">
-        <v>331.6928520689268</v>
+        <v>303.3732224801065</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>72.84550644876927</v>
+        <v>62.22126207931487</v>
       </c>
       <c r="C15" t="n">
-        <v>72.84550644876927</v>
+        <v>62.22126207931487</v>
       </c>
       <c r="D15" t="n">
-        <v>72.84550644876927</v>
+        <v>62.22126207931487</v>
       </c>
       <c r="E15" t="n">
-        <v>72.84550644876927</v>
+        <v>62.22126207931487</v>
       </c>
       <c r="F15" t="n">
-        <v>72.84550644876927</v>
+        <v>62.22126207931487</v>
       </c>
       <c r="G15" t="n">
-        <v>9.763943861888364</v>
+        <v>62.22126207931487</v>
       </c>
       <c r="H15" t="n">
-        <v>9.763943861888364</v>
+        <v>62.22126207931487</v>
       </c>
       <c r="I15" t="n">
-        <v>9.763943861888364</v>
+        <v>62.22126207931487</v>
       </c>
       <c r="J15" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K15" t="n">
-        <v>48.64509028167978</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="L15" t="n">
-        <v>48.64509028167978</v>
+        <v>41.00029403282564</v>
       </c>
       <c r="M15" t="n">
-        <v>169.4738955725483</v>
+        <v>161.8290993236943</v>
       </c>
       <c r="N15" t="n">
-        <v>282.6579046145625</v>
+        <v>282.6579046145629</v>
       </c>
       <c r="O15" t="n">
-        <v>403.486709905431</v>
+        <v>403.4867099054315</v>
       </c>
       <c r="P15" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="Q15" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="R15" t="n">
-        <v>488.1971930944183</v>
+        <v>421.7976492276624</v>
       </c>
       <c r="S15" t="n">
-        <v>488.1971930944183</v>
+        <v>298.5155297593748</v>
       </c>
       <c r="T15" t="n">
-        <v>364.9150736261308</v>
+        <v>277.7424928596495</v>
       </c>
       <c r="U15" t="n">
-        <v>321.637077559424</v>
+        <v>234.4644967929426</v>
       </c>
       <c r="V15" t="n">
-        <v>198.3549580911366</v>
+        <v>187.7307137216824</v>
       </c>
       <c r="W15" t="n">
-        <v>125.3023238465337</v>
+        <v>114.6780794770794</v>
       </c>
       <c r="X15" t="n">
-        <v>102.1402644883358</v>
+        <v>91.5160201188815</v>
       </c>
       <c r="Y15" t="n">
-        <v>72.84550644876927</v>
+        <v>62.22126207931487</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.763943861888364</v>
+        <v>26.36184332167607</v>
       </c>
       <c r="C16" t="n">
-        <v>9.763943861888364</v>
+        <v>26.36184332167607</v>
       </c>
       <c r="D16" t="n">
-        <v>9.763943861888364</v>
+        <v>75.06967049157856</v>
       </c>
       <c r="E16" t="n">
-        <v>9.763943861888364</v>
+        <v>75.06967049157856</v>
       </c>
       <c r="F16" t="n">
-        <v>9.763943861888364</v>
+        <v>129.9707080134225</v>
       </c>
       <c r="G16" t="n">
-        <v>9.763943861888364</v>
+        <v>155.4003569195567</v>
       </c>
       <c r="H16" t="n">
-        <v>9.763943861888364</v>
+        <v>183.715220816443</v>
       </c>
       <c r="I16" t="n">
-        <v>9.763943861888364</v>
+        <v>213.0927348820548</v>
       </c>
       <c r="J16" t="n">
-        <v>21.40442848124245</v>
+        <v>213.0927348820548</v>
       </c>
       <c r="K16" t="n">
-        <v>21.40442848124245</v>
+        <v>213.0927348820548</v>
       </c>
       <c r="L16" t="n">
-        <v>142.233233772111</v>
+        <v>333.9215401729234</v>
       </c>
       <c r="M16" t="n">
-        <v>263.0620390629795</v>
+        <v>383.8908443538486</v>
       </c>
       <c r="N16" t="n">
-        <v>263.0620390629795</v>
+        <v>383.8908443538486</v>
       </c>
       <c r="O16" t="n">
-        <v>383.890844353848</v>
+        <v>383.8908443538486</v>
       </c>
       <c r="P16" t="n">
-        <v>383.890844353848</v>
+        <v>383.8908443538486</v>
       </c>
       <c r="Q16" t="n">
-        <v>383.890844353848</v>
+        <v>383.8908443538486</v>
       </c>
       <c r="R16" t="n">
-        <v>374.9705796473626</v>
+        <v>374.9705796473632</v>
       </c>
       <c r="S16" t="n">
-        <v>333.5850382143196</v>
+        <v>333.5850382143201</v>
       </c>
       <c r="T16" t="n">
-        <v>303.9299706769509</v>
+        <v>303.9299706769513</v>
       </c>
       <c r="U16" t="n">
-        <v>208.7038911313603</v>
+        <v>208.7038911313607</v>
       </c>
       <c r="V16" t="n">
-        <v>157.4649623337895</v>
+        <v>157.4649623337897</v>
       </c>
       <c r="W16" t="n">
-        <v>60.56775888481916</v>
+        <v>60.56775888481934</v>
       </c>
       <c r="X16" t="n">
-        <v>32.7526278409931</v>
+        <v>32.7526278409932</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>315.9417875589152</v>
+        <v>315.9417875589156</v>
       </c>
       <c r="C17" t="n">
-        <v>286.3198544558577</v>
+        <v>286.3198544558581</v>
       </c>
       <c r="D17" t="n">
-        <v>269.2568483618417</v>
+        <v>269.2568483618427</v>
       </c>
       <c r="E17" t="n">
-        <v>218.1466176017566</v>
+        <v>218.1466176017575</v>
       </c>
       <c r="F17" t="n">
-        <v>134.9956418130078</v>
+        <v>134.9956418130085</v>
       </c>
       <c r="G17" t="n">
-        <v>36.05861259151858</v>
+        <v>36.05861259151848</v>
       </c>
       <c r="H17" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="I17" t="n">
-        <v>9.763943861888364</v>
+        <v>89.24480594465248</v>
       </c>
       <c r="J17" t="n">
-        <v>9.763943861888364</v>
+        <v>89.24480594465248</v>
       </c>
       <c r="K17" t="n">
-        <v>9.763943861888364</v>
+        <v>89.24480594465248</v>
       </c>
       <c r="L17" t="n">
-        <v>58.16119434887571</v>
+        <v>137.6420564316398</v>
       </c>
       <c r="M17" t="n">
-        <v>140.8884203519927</v>
+        <v>220.3692824347568</v>
       </c>
       <c r="N17" t="n">
-        <v>218.1118233434976</v>
+        <v>297.5926854262617</v>
       </c>
       <c r="O17" t="n">
-        <v>254.1223342426778</v>
+        <v>333.603196325442</v>
       </c>
       <c r="P17" t="n">
-        <v>254.1223342426778</v>
+        <v>333.603196325442</v>
       </c>
       <c r="Q17" t="n">
-        <v>254.1223342426778</v>
+        <v>333.603196325442</v>
       </c>
       <c r="R17" t="n">
-        <v>374.9511395335463</v>
+        <v>333.603196325442</v>
       </c>
       <c r="S17" t="n">
-        <v>467.6223750402849</v>
+        <v>418.1743935494831</v>
       </c>
       <c r="T17" t="n">
-        <v>467.6223750402849</v>
+        <v>418.1743935494831</v>
       </c>
       <c r="U17" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="V17" t="n">
-        <v>488.1971930944185</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="W17" t="n">
-        <v>471.00862721905</v>
+        <v>471.0086272190501</v>
       </c>
       <c r="X17" t="n">
-        <v>431.7127376376822</v>
+        <v>431.7127376376825</v>
       </c>
       <c r="Y17" t="n">
-        <v>369.6866933858661</v>
+        <v>369.6866933858664</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>256.3281827984632</v>
+        <v>62.22126207931487</v>
       </c>
       <c r="C18" t="n">
-        <v>256.3281827984632</v>
+        <v>62.22126207931487</v>
       </c>
       <c r="D18" t="n">
-        <v>256.3281827984632</v>
+        <v>62.22126207931487</v>
       </c>
       <c r="E18" t="n">
-        <v>256.3281827984632</v>
+        <v>62.22126207931487</v>
       </c>
       <c r="F18" t="n">
-        <v>133.0460633301758</v>
+        <v>62.22126207931487</v>
       </c>
       <c r="G18" t="n">
-        <v>9.763943861888364</v>
+        <v>62.22126207931487</v>
       </c>
       <c r="H18" t="n">
-        <v>9.763943861888364</v>
+        <v>62.22126207931487</v>
       </c>
       <c r="I18" t="n">
-        <v>9.763943861888364</v>
+        <v>62.22126207931487</v>
       </c>
       <c r="J18" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K18" t="n">
-        <v>48.64509028167978</v>
+        <v>48.6450902816798</v>
       </c>
       <c r="L18" t="n">
         <v>167.2121322091852</v>
       </c>
       <c r="M18" t="n">
-        <v>167.2121322091852</v>
+        <v>288.0409375000538</v>
       </c>
       <c r="N18" t="n">
-        <v>288.0409375000537</v>
+        <v>288.0409375000538</v>
       </c>
       <c r="O18" t="n">
-        <v>408.8697427909222</v>
+        <v>403.4867099054315</v>
       </c>
       <c r="P18" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="Q18" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="R18" t="n">
-        <v>379.6103022667506</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="S18" t="n">
-        <v>379.6103022667506</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="T18" t="n">
-        <v>379.6103022667506</v>
+        <v>364.9150736261312</v>
       </c>
       <c r="U18" t="n">
-        <v>379.6103022667506</v>
+        <v>241.6329541578436</v>
       </c>
       <c r="V18" t="n">
-        <v>379.6103022667506</v>
+        <v>241.6329541578436</v>
       </c>
       <c r="W18" t="n">
-        <v>379.6103022667506</v>
+        <v>118.3508346895561</v>
       </c>
       <c r="X18" t="n">
-        <v>256.3281827984632</v>
+        <v>118.3508346895561</v>
       </c>
       <c r="Y18" t="n">
-        <v>256.3281827984632</v>
+        <v>118.3508346895561</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="C19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="D19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="E19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="F19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="G19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="H19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="I19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="J19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="L19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="M19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="N19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="O19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="P19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="R19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="S19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="T19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="U19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="V19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="W19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="X19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
     </row>
     <row r="20">
@@ -5729,73 +5729,73 @@
         <v>315.9417875589152</v>
       </c>
       <c r="C20" t="n">
-        <v>286.3198544558576</v>
+        <v>286.3198544558577</v>
       </c>
       <c r="D20" t="n">
-        <v>269.2568483618422</v>
+        <v>269.256848361842</v>
       </c>
       <c r="E20" t="n">
-        <v>218.1466176017573</v>
+        <v>218.1466176017569</v>
       </c>
       <c r="F20" t="n">
-        <v>134.9956418130078</v>
+        <v>134.9956418130079</v>
       </c>
       <c r="G20" t="n">
-        <v>36.05861259151847</v>
+        <v>36.05861259151859</v>
       </c>
       <c r="H20" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="I20" t="n">
-        <v>89.24480594465247</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="J20" t="n">
-        <v>89.24480594465247</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K20" t="n">
-        <v>89.24480594465247</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="L20" t="n">
-        <v>137.6420564316398</v>
+        <v>58.16119434887571</v>
       </c>
       <c r="M20" t="n">
-        <v>220.3692824347568</v>
+        <v>140.8884203519927</v>
       </c>
       <c r="N20" t="n">
-        <v>297.5926854262617</v>
+        <v>218.1118233434976</v>
       </c>
       <c r="O20" t="n">
-        <v>333.603196325442</v>
+        <v>254.1223342426778</v>
       </c>
       <c r="P20" t="n">
-        <v>333.603196325442</v>
+        <v>254.1223342426778</v>
       </c>
       <c r="Q20" t="n">
-        <v>418.1743935494826</v>
+        <v>254.1223342426778</v>
       </c>
       <c r="R20" t="n">
-        <v>418.1743935494826</v>
+        <v>254.1223342426778</v>
       </c>
       <c r="S20" t="n">
-        <v>418.1743935494826</v>
+        <v>346.7935697494163</v>
       </c>
       <c r="T20" t="n">
-        <v>418.1743935494826</v>
+        <v>444.2698356443676</v>
       </c>
       <c r="U20" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="V20" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944185</v>
       </c>
       <c r="W20" t="n">
-        <v>471.0086272190498</v>
+        <v>471.00862721905</v>
       </c>
       <c r="X20" t="n">
-        <v>431.712737637682</v>
+        <v>431.7127376376822</v>
       </c>
       <c r="Y20" t="n">
-        <v>369.686693385866</v>
+        <v>369.6866933858661</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>9.763943861888364</v>
+        <v>185.5033815476024</v>
       </c>
       <c r="C21" t="n">
-        <v>9.763943861888364</v>
+        <v>185.5033815476024</v>
       </c>
       <c r="D21" t="n">
-        <v>9.763943861888364</v>
+        <v>62.22126207931487</v>
       </c>
       <c r="E21" t="n">
-        <v>9.763943861888364</v>
+        <v>62.22126207931487</v>
       </c>
       <c r="F21" t="n">
-        <v>9.763943861888364</v>
+        <v>62.22126207931487</v>
       </c>
       <c r="G21" t="n">
-        <v>9.763943861888364</v>
+        <v>62.22126207931487</v>
       </c>
       <c r="H21" t="n">
-        <v>9.763943861888364</v>
+        <v>62.22126207931487</v>
       </c>
       <c r="I21" t="n">
-        <v>9.763943861888364</v>
+        <v>62.22126207931487</v>
       </c>
       <c r="J21" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K21" t="n">
-        <v>48.64509028167978</v>
+        <v>48.6450902816798</v>
       </c>
       <c r="L21" t="n">
-        <v>48.64509028167978</v>
+        <v>161.8290993236943</v>
       </c>
       <c r="M21" t="n">
-        <v>169.4738955725483</v>
+        <v>282.6579046145629</v>
       </c>
       <c r="N21" t="n">
-        <v>290.3027008634168</v>
+        <v>282.6579046145629</v>
       </c>
       <c r="O21" t="n">
-        <v>411.1315061542853</v>
+        <v>403.4867099054315</v>
       </c>
       <c r="P21" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="Q21" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="R21" t="n">
-        <v>364.9150736261308</v>
+        <v>364.9150736261312</v>
       </c>
       <c r="S21" t="n">
-        <v>364.9150736261308</v>
+        <v>308.78550101589</v>
       </c>
       <c r="T21" t="n">
-        <v>364.9150736261308</v>
+        <v>308.78550101589</v>
       </c>
       <c r="U21" t="n">
-        <v>256.3281827984632</v>
+        <v>308.78550101589</v>
       </c>
       <c r="V21" t="n">
-        <v>256.3281827984632</v>
+        <v>308.78550101589</v>
       </c>
       <c r="W21" t="n">
-        <v>256.3281827984632</v>
+        <v>308.78550101589</v>
       </c>
       <c r="X21" t="n">
-        <v>133.0460633301758</v>
+        <v>308.78550101589</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.763943861888364</v>
+        <v>185.5033815476024</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="C22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="D22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="E22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="F22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="G22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="H22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="I22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="J22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="L22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="M22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="N22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="O22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="P22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="R22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="S22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="T22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="U22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="V22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="W22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="X22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
     </row>
     <row r="23">
@@ -5963,73 +5963,73 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>315.9417875589152</v>
+        <v>315.9417875589151</v>
       </c>
       <c r="C23" t="n">
-        <v>286.3198544558578</v>
+        <v>286.3198544558577</v>
       </c>
       <c r="D23" t="n">
-        <v>269.2568483618424</v>
+        <v>269.2568483618421</v>
       </c>
       <c r="E23" t="n">
-        <v>218.1466176017574</v>
+        <v>218.146617601757</v>
       </c>
       <c r="F23" t="n">
-        <v>134.9956418130085</v>
+        <v>134.9956418130079</v>
       </c>
       <c r="G23" t="n">
-        <v>36.05861259151847</v>
+        <v>36.05861259151859</v>
       </c>
       <c r="H23" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="I23" t="n">
-        <v>9.763943861888364</v>
+        <v>81.14476766195517</v>
       </c>
       <c r="J23" t="n">
-        <v>52.98719787782461</v>
+        <v>81.14476766195517</v>
       </c>
       <c r="K23" t="n">
-        <v>52.98719787782461</v>
+        <v>81.14476766195517</v>
       </c>
       <c r="L23" t="n">
-        <v>101.384448364812</v>
+        <v>129.5420181489425</v>
       </c>
       <c r="M23" t="n">
-        <v>184.1116743679289</v>
+        <v>212.2692441520595</v>
       </c>
       <c r="N23" t="n">
-        <v>261.3350773594339</v>
+        <v>289.4926471435644</v>
       </c>
       <c r="O23" t="n">
-        <v>297.3455882586141</v>
+        <v>325.5031580427446</v>
       </c>
       <c r="P23" t="n">
-        <v>297.3455882586141</v>
+        <v>325.5031580427446</v>
       </c>
       <c r="Q23" t="n">
-        <v>418.1743935494826</v>
+        <v>325.5031580427446</v>
       </c>
       <c r="R23" t="n">
-        <v>418.1743935494826</v>
+        <v>325.5031580427446</v>
       </c>
       <c r="S23" t="n">
-        <v>418.1743935494826</v>
+        <v>418.1743935494832</v>
       </c>
       <c r="T23" t="n">
-        <v>418.1743935494826</v>
+        <v>418.1743935494832</v>
       </c>
       <c r="U23" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="V23" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944186</v>
       </c>
       <c r="W23" t="n">
-        <v>471.0086272190497</v>
+        <v>471.00862721905</v>
       </c>
       <c r="X23" t="n">
-        <v>431.712737637682</v>
+        <v>431.7127376376821</v>
       </c>
       <c r="Y23" t="n">
         <v>369.686693385866</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>364.9150736261308</v>
+        <v>235.4343823181814</v>
       </c>
       <c r="C24" t="n">
-        <v>364.9150736261308</v>
+        <v>235.4343823181814</v>
       </c>
       <c r="D24" t="n">
-        <v>241.6329541578434</v>
+        <v>235.4343823181814</v>
       </c>
       <c r="E24" t="n">
-        <v>241.6329541578434</v>
+        <v>235.4343823181814</v>
       </c>
       <c r="F24" t="n">
-        <v>118.3508346895559</v>
+        <v>235.4343823181814</v>
       </c>
       <c r="G24" t="n">
-        <v>9.763943861888364</v>
+        <v>235.4343823181814</v>
       </c>
       <c r="H24" t="n">
-        <v>9.763943861888364</v>
+        <v>170.4694832648917</v>
       </c>
       <c r="I24" t="n">
-        <v>9.763943861888364</v>
+        <v>62.22126207931487</v>
       </c>
       <c r="J24" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K24" t="n">
-        <v>43.2620573961886</v>
+        <v>48.6450902816798</v>
       </c>
       <c r="L24" t="n">
-        <v>161.829099323694</v>
+        <v>167.2121322091852</v>
       </c>
       <c r="M24" t="n">
-        <v>282.6579046145625</v>
+        <v>288.0409375000538</v>
       </c>
       <c r="N24" t="n">
-        <v>403.486709905431</v>
+        <v>408.8697427909224</v>
       </c>
       <c r="O24" t="n">
-        <v>403.486709905431</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="P24" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="Q24" t="n">
-        <v>488.1971930944183</v>
+        <v>481.9986212547565</v>
       </c>
       <c r="R24" t="n">
-        <v>488.1971930944183</v>
+        <v>358.7165017864689</v>
       </c>
       <c r="S24" t="n">
-        <v>488.1971930944183</v>
+        <v>235.4343823181814</v>
       </c>
       <c r="T24" t="n">
-        <v>488.1971930944183</v>
+        <v>235.4343823181814</v>
       </c>
       <c r="U24" t="n">
-        <v>488.1971930944183</v>
+        <v>235.4343823181814</v>
       </c>
       <c r="V24" t="n">
-        <v>488.1971930944183</v>
+        <v>235.4343823181814</v>
       </c>
       <c r="W24" t="n">
-        <v>364.9150736261308</v>
+        <v>235.4343823181814</v>
       </c>
       <c r="X24" t="n">
-        <v>364.9150736261308</v>
+        <v>235.4343823181814</v>
       </c>
       <c r="Y24" t="n">
-        <v>364.9150736261308</v>
+        <v>235.4343823181814</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="C25" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="D25" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="E25" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="F25" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="G25" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="H25" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="I25" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="J25" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="K25" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="L25" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="M25" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="N25" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="O25" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="P25" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="Q25" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="R25" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="S25" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="T25" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="U25" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="V25" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="W25" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="X25" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="Y25" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
     </row>
     <row r="26">
@@ -6203,37 +6203,37 @@
         <v>1024.530470300262</v>
       </c>
       <c r="C26" t="n">
-        <v>885.8553792567889</v>
+        <v>885.8553792567885</v>
       </c>
       <c r="D26" t="n">
-        <v>759.7392152223576</v>
+        <v>759.7392152223572</v>
       </c>
       <c r="E26" t="n">
-        <v>599.5758265218569</v>
+        <v>599.5758265218562</v>
       </c>
       <c r="F26" t="n">
-        <v>407.3716927926919</v>
+        <v>407.3716927926914</v>
       </c>
       <c r="G26" t="n">
-        <v>199.3815056307863</v>
+        <v>199.3815056307861</v>
       </c>
       <c r="H26" t="n">
-        <v>64.03367896074062</v>
+        <v>64.03367896074009</v>
       </c>
       <c r="I26" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="J26" t="n">
-        <v>171.7509734792162</v>
+        <v>171.7509734792161</v>
       </c>
       <c r="K26" t="n">
-        <v>377.2303396281796</v>
+        <v>377.2303396281795</v>
       </c>
       <c r="L26" t="n">
-        <v>636.415575790826</v>
+        <v>636.4155757908263</v>
       </c>
       <c r="M26" t="n">
-        <v>929.9307874696019</v>
+        <v>929.930787469602</v>
       </c>
       <c r="N26" t="n">
         <v>1217.942176136766</v>
@@ -6248,13 +6248,13 @@
         <v>1785.235767148035</v>
       </c>
       <c r="R26" t="n">
-        <v>1803.758327455587</v>
+        <v>1803.758327455588</v>
       </c>
       <c r="S26" t="n">
-        <v>1789.258006477459</v>
+        <v>1789.25800647746</v>
       </c>
       <c r="T26" t="n">
-        <v>1779.660277467715</v>
+        <v>1779.660277467716</v>
       </c>
       <c r="U26" t="n">
         <v>1742.051665537845</v>
@@ -6263,7 +6263,7 @@
         <v>1632.998507597429</v>
       </c>
       <c r="W26" t="n">
-        <v>1506.756783781644</v>
+        <v>1506.756783781645</v>
       </c>
       <c r="X26" t="n">
         <v>1358.407736259861</v>
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>36.07516654911174</v>
+        <v>240.490073820197</v>
       </c>
       <c r="C27" t="n">
-        <v>36.07516654911174</v>
+        <v>240.490073820197</v>
       </c>
       <c r="D27" t="n">
-        <v>36.07516654911174</v>
+        <v>240.490073820197</v>
       </c>
       <c r="E27" t="n">
-        <v>36.07516654911174</v>
+        <v>240.490073820197</v>
       </c>
       <c r="F27" t="n">
-        <v>36.07516654911174</v>
+        <v>240.490073820197</v>
       </c>
       <c r="G27" t="n">
-        <v>36.07516654911174</v>
+        <v>90.24879786917077</v>
       </c>
       <c r="H27" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="I27" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="J27" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="K27" t="n">
-        <v>74.95631296890316</v>
+        <v>74.95631296890318</v>
       </c>
       <c r="L27" t="n">
         <v>193.5233548964085</v>
@@ -6324,31 +6324,31 @@
         <v>800.7871810738251</v>
       </c>
       <c r="Q27" t="n">
-        <v>800.7871810738251</v>
+        <v>794.5886092341628</v>
       </c>
       <c r="R27" t="n">
-        <v>800.7871810738251</v>
+        <v>794.5886092341628</v>
       </c>
       <c r="S27" t="n">
-        <v>800.7871810738251</v>
+        <v>794.5886092341628</v>
       </c>
       <c r="T27" t="n">
-        <v>583.668209148994</v>
+        <v>577.4696373093318</v>
       </c>
       <c r="U27" t="n">
-        <v>559.1121136613637</v>
+        <v>337.8457062175192</v>
       </c>
       <c r="V27" t="n">
-        <v>316.0323955649977</v>
+        <v>309.8338237253354</v>
       </c>
       <c r="W27" t="n">
-        <v>51.08818278872339</v>
+        <v>255.5030900598088</v>
       </c>
       <c r="X27" t="n">
-        <v>46.64802400960192</v>
+        <v>251.0629312806872</v>
       </c>
       <c r="Y27" t="n">
-        <v>36.07516654911174</v>
+        <v>240.490073820197</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="C28" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="D28" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="E28" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="F28" t="n">
-        <v>90.56236047948937</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="G28" t="n">
-        <v>90.56236047948937</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="H28" t="n">
-        <v>90.56236047948937</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="I28" t="n">
-        <v>90.56236047948937</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="J28" t="n">
-        <v>90.56236047948937</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="K28" t="n">
-        <v>90.56236047948937</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="L28" t="n">
-        <v>270.2284982810514</v>
+        <v>215.7413043506737</v>
       </c>
       <c r="M28" t="n">
-        <v>270.2284982810514</v>
+        <v>270.228498281052</v>
       </c>
       <c r="N28" t="n">
-        <v>270.2284982810514</v>
+        <v>270.228498281052</v>
       </c>
       <c r="O28" t="n">
-        <v>270.2284982810514</v>
+        <v>270.228498281052</v>
       </c>
       <c r="P28" t="n">
-        <v>270.2284982810514</v>
+        <v>270.228498281052</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.2284982810514</v>
+        <v>270.228498281052</v>
       </c>
       <c r="R28" t="n">
-        <v>270.2284982810514</v>
+        <v>270.228498281052</v>
       </c>
       <c r="S28" t="n">
-        <v>247.5648574270847</v>
+        <v>247.5648574270852</v>
       </c>
       <c r="T28" t="n">
-        <v>236.6316904687924</v>
+        <v>236.6316904687928</v>
       </c>
       <c r="U28" t="n">
-        <v>160.1275115022782</v>
+        <v>160.1275115022786</v>
       </c>
       <c r="V28" t="n">
-        <v>127.6104832837837</v>
+        <v>127.610483283784</v>
       </c>
       <c r="W28" t="n">
-        <v>49.43518041388978</v>
+        <v>49.43518041388997</v>
       </c>
       <c r="X28" t="n">
-        <v>40.3419499491401</v>
+        <v>40.34194994914019</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911175</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1024.530470300263</v>
+        <v>1024.530470300262</v>
       </c>
       <c r="C29" t="n">
-        <v>885.8553792567894</v>
+        <v>885.855379256789</v>
       </c>
       <c r="D29" t="n">
-        <v>759.7392152223581</v>
+        <v>759.7392152223576</v>
       </c>
       <c r="E29" t="n">
-        <v>599.5758265218572</v>
+        <v>599.5758265218567</v>
       </c>
       <c r="F29" t="n">
-        <v>407.3716927926922</v>
+        <v>407.3716927926918</v>
       </c>
       <c r="G29" t="n">
-        <v>199.3815056307869</v>
+        <v>199.3815056307865</v>
       </c>
       <c r="H29" t="n">
-        <v>64.03367896074073</v>
+        <v>64.03367896074072</v>
       </c>
       <c r="I29" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="J29" t="n">
         <v>171.7509734792161</v>
@@ -6470,43 +6470,43 @@
         <v>636.4155757908258</v>
       </c>
       <c r="M29" t="n">
-        <v>929.9307874696019</v>
+        <v>929.9307874696016</v>
       </c>
       <c r="N29" t="n">
-        <v>1217.942176136766</v>
+        <v>1217.942176136765</v>
       </c>
       <c r="O29" t="n">
-        <v>1464.740672711605</v>
+        <v>1464.740672711604</v>
       </c>
       <c r="P29" t="n">
-        <v>1662.115223691694</v>
+        <v>1662.115223691695</v>
       </c>
       <c r="Q29" t="n">
-        <v>1785.235767148034</v>
+        <v>1785.235767148035</v>
       </c>
       <c r="R29" t="n">
-        <v>1803.758327455587</v>
+        <v>1803.758327455588</v>
       </c>
       <c r="S29" t="n">
         <v>1789.25800647746</v>
       </c>
       <c r="T29" t="n">
-        <v>1779.660277467715</v>
+        <v>1779.660277467716</v>
       </c>
       <c r="U29" t="n">
-        <v>1742.051665537846</v>
+        <v>1742.051665537845</v>
       </c>
       <c r="V29" t="n">
-        <v>1632.99850759743</v>
+        <v>1632.998507597429</v>
       </c>
       <c r="W29" t="n">
         <v>1506.756783781645</v>
       </c>
       <c r="X29" t="n">
-        <v>1358.407736259862</v>
+        <v>1358.407736259861</v>
       </c>
       <c r="Y29" t="n">
-        <v>1187.32853406763</v>
+        <v>1187.328534067629</v>
       </c>
     </row>
     <row r="30">
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>323.4524544256399</v>
+        <v>271.2729593284608</v>
       </c>
       <c r="C30" t="n">
-        <v>323.4524544256399</v>
+        <v>271.2729593284608</v>
       </c>
       <c r="D30" t="n">
-        <v>323.4524544256399</v>
+        <v>271.2729593284608</v>
       </c>
       <c r="E30" t="n">
-        <v>323.4524544256399</v>
+        <v>271.2729593284608</v>
       </c>
       <c r="F30" t="n">
-        <v>163.024738142884</v>
+        <v>271.2729593284608</v>
       </c>
       <c r="G30" t="n">
-        <v>163.024738142884</v>
+        <v>271.2729593284608</v>
       </c>
       <c r="H30" t="n">
-        <v>36.07516654911174</v>
+        <v>144.3233877346886</v>
       </c>
       <c r="I30" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="J30" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="K30" t="n">
-        <v>74.95631296890316</v>
+        <v>74.95631296890318</v>
       </c>
       <c r="L30" t="n">
         <v>193.5233548964085</v>
@@ -6564,28 +6564,28 @@
         <v>800.7871810738251</v>
       </c>
       <c r="R30" t="n">
-        <v>665.0666380284965</v>
+        <v>800.7871810738251</v>
       </c>
       <c r="S30" t="n">
-        <v>665.0666380284965</v>
+        <v>800.7871810738251</v>
       </c>
       <c r="T30" t="n">
-        <v>663.0155017078476</v>
+        <v>583.668209148994</v>
       </c>
       <c r="U30" t="n">
-        <v>638.4594062202171</v>
+        <v>559.1121136613635</v>
       </c>
       <c r="V30" t="n">
-        <v>395.3796881238512</v>
+        <v>531.1002311691797</v>
       </c>
       <c r="W30" t="n">
-        <v>338.4654706652517</v>
+        <v>476.769497503653</v>
       </c>
       <c r="X30" t="n">
-        <v>334.0253118861301</v>
+        <v>472.3293387245315</v>
       </c>
       <c r="Y30" t="n">
-        <v>323.4524544256399</v>
+        <v>271.2729593284608</v>
       </c>
     </row>
     <row r="31">
@@ -6595,58 +6595,58 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="C31" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="D31" t="n">
-        <v>103.132328476567</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="E31" t="n">
-        <v>173.6609343521231</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="F31" t="n">
-        <v>173.6609343521231</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="G31" t="n">
-        <v>173.6609343521231</v>
+        <v>79.85415021279869</v>
       </c>
       <c r="H31" t="n">
-        <v>173.6609343521231</v>
+        <v>79.85415021279869</v>
       </c>
       <c r="I31" t="n">
-        <v>221.3877831752876</v>
+        <v>127.5809990359632</v>
       </c>
       <c r="J31" t="n">
-        <v>270.228498281052</v>
+        <v>127.5809990359632</v>
       </c>
       <c r="K31" t="n">
-        <v>270.228498281052</v>
+        <v>127.5809990359632</v>
       </c>
       <c r="L31" t="n">
-        <v>270.228498281052</v>
+        <v>127.5809990359632</v>
       </c>
       <c r="M31" t="n">
-        <v>270.228498281052</v>
+        <v>127.5809990359632</v>
       </c>
       <c r="N31" t="n">
-        <v>270.228498281052</v>
+        <v>127.5809990359632</v>
       </c>
       <c r="O31" t="n">
-        <v>270.228498281052</v>
+        <v>260.6219149623256</v>
       </c>
       <c r="P31" t="n">
-        <v>270.228498281052</v>
+        <v>260.6219149623256</v>
       </c>
       <c r="Q31" t="n">
-        <v>270.228498281052</v>
+        <v>260.6219149623256</v>
       </c>
       <c r="R31" t="n">
         <v>270.228498281052</v>
       </c>
       <c r="S31" t="n">
-        <v>247.5648574270852</v>
+        <v>247.5648574270853</v>
       </c>
       <c r="T31" t="n">
         <v>236.6316904687928</v>
@@ -6658,13 +6658,13 @@
         <v>127.610483283784</v>
       </c>
       <c r="W31" t="n">
-        <v>49.43518041388995</v>
+        <v>49.43518041388998</v>
       </c>
       <c r="X31" t="n">
-        <v>40.34194994914019</v>
+        <v>40.34194994914021</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911176</v>
       </c>
     </row>
     <row r="32">
@@ -6674,49 +6674,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1024.530470300263</v>
+        <v>1024.530470300262</v>
       </c>
       <c r="C32" t="n">
-        <v>885.8553792567892</v>
+        <v>885.8553792567885</v>
       </c>
       <c r="D32" t="n">
-        <v>759.7392152223579</v>
+        <v>759.7392152223572</v>
       </c>
       <c r="E32" t="n">
-        <v>599.5758265218569</v>
+        <v>599.5758265218562</v>
       </c>
       <c r="F32" t="n">
-        <v>407.371692792692</v>
+        <v>407.3716927926913</v>
       </c>
       <c r="G32" t="n">
-        <v>199.3815056307867</v>
+        <v>199.381505630786</v>
       </c>
       <c r="H32" t="n">
-        <v>64.03367896074067</v>
+        <v>64.03367896074074</v>
       </c>
       <c r="I32" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="J32" t="n">
-        <v>171.7509734792163</v>
+        <v>171.750973479216</v>
       </c>
       <c r="K32" t="n">
-        <v>377.2303396281798</v>
+        <v>377.2303396281794</v>
       </c>
       <c r="L32" t="n">
-        <v>636.415575790826</v>
+        <v>636.4155757908256</v>
       </c>
       <c r="M32" t="n">
-        <v>929.9307874696018</v>
+        <v>929.9307874696013</v>
       </c>
       <c r="N32" t="n">
         <v>1217.942176136765</v>
       </c>
       <c r="O32" t="n">
-        <v>1464.740672711604</v>
+        <v>1464.740672711605</v>
       </c>
       <c r="P32" t="n">
-        <v>1662.115223691694</v>
+        <v>1662.115223691695</v>
       </c>
       <c r="Q32" t="n">
         <v>1785.235767148034</v>
@@ -6725,7 +6725,7 @@
         <v>1803.758327455587</v>
       </c>
       <c r="S32" t="n">
-        <v>1789.258006477459</v>
+        <v>1789.25800647746</v>
       </c>
       <c r="T32" t="n">
         <v>1779.660277467715</v>
@@ -6753,34 +6753,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>36.07516654911174</v>
+        <v>359.8796463787235</v>
       </c>
       <c r="C33" t="n">
-        <v>36.07516654911174</v>
+        <v>359.8796463787235</v>
       </c>
       <c r="D33" t="n">
-        <v>36.07516654911174</v>
+        <v>359.8796463787235</v>
       </c>
       <c r="E33" t="n">
-        <v>36.07516654911174</v>
+        <v>186.3164425001379</v>
       </c>
       <c r="F33" t="n">
-        <v>36.07516654911174</v>
+        <v>186.3164425001379</v>
       </c>
       <c r="G33" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="H33" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="I33" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="J33" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="K33" t="n">
-        <v>74.95631296890316</v>
+        <v>74.95631296890318</v>
       </c>
       <c r="L33" t="n">
         <v>193.5233548964085</v>
@@ -6801,28 +6801,28 @@
         <v>794.5886092341628</v>
       </c>
       <c r="R33" t="n">
-        <v>794.5886092341628</v>
+        <v>658.8680661888343</v>
       </c>
       <c r="S33" t="n">
-        <v>794.5886092341628</v>
+        <v>658.8680661888343</v>
       </c>
       <c r="T33" t="n">
-        <v>577.4696373093318</v>
+        <v>656.8169298681854</v>
       </c>
       <c r="U33" t="n">
-        <v>527.0344874775512</v>
+        <v>632.2608343805549</v>
       </c>
       <c r="V33" t="n">
-        <v>499.0226049853674</v>
+        <v>604.248951888371</v>
       </c>
       <c r="W33" t="n">
-        <v>229.6240357156587</v>
+        <v>549.9182182228444</v>
       </c>
       <c r="X33" t="n">
-        <v>225.1838769365371</v>
+        <v>370.4525038392138</v>
       </c>
       <c r="Y33" t="n">
-        <v>214.6110194760468</v>
+        <v>359.8796463787235</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.07516654911174</v>
+        <v>71.02240076645217</v>
       </c>
       <c r="C34" t="n">
-        <v>36.07516654911174</v>
+        <v>117.0177772798584</v>
       </c>
       <c r="D34" t="n">
-        <v>36.07516654911174</v>
+        <v>117.0177772798584</v>
       </c>
       <c r="E34" t="n">
-        <v>36.07516654911174</v>
+        <v>117.0177772798584</v>
       </c>
       <c r="F34" t="n">
-        <v>109.3255388285084</v>
+        <v>117.0177772798584</v>
       </c>
       <c r="G34" t="n">
-        <v>109.3255388285084</v>
+        <v>160.7967609435453</v>
       </c>
       <c r="H34" t="n">
-        <v>109.3255388285084</v>
+        <v>207.4609595979843</v>
       </c>
       <c r="I34" t="n">
-        <v>109.3255388285084</v>
+        <v>207.4609595979843</v>
       </c>
       <c r="J34" t="n">
-        <v>184.9863110441007</v>
+        <v>260.6219149623258</v>
       </c>
       <c r="K34" t="n">
-        <v>184.9863110441007</v>
+        <v>260.6219149623258</v>
       </c>
       <c r="L34" t="n">
-        <v>184.9863110441007</v>
+        <v>260.6219149623258</v>
       </c>
       <c r="M34" t="n">
-        <v>184.9863110441007</v>
+        <v>260.6219149623258</v>
       </c>
       <c r="N34" t="n">
-        <v>184.9863110441007</v>
+        <v>260.6219149623258</v>
       </c>
       <c r="O34" t="n">
-        <v>184.9863110441007</v>
+        <v>260.6219149623258</v>
       </c>
       <c r="P34" t="n">
-        <v>184.9863110441007</v>
+        <v>260.6219149623258</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.228498281052</v>
+        <v>260.6219149623258</v>
       </c>
       <c r="R34" t="n">
-        <v>270.228498281052</v>
+        <v>270.2284982810522</v>
       </c>
       <c r="S34" t="n">
-        <v>247.5648574270852</v>
+        <v>247.5648574270854</v>
       </c>
       <c r="T34" t="n">
-        <v>236.6316904687928</v>
+        <v>236.631690468793</v>
       </c>
       <c r="U34" t="n">
-        <v>160.1275115022786</v>
+        <v>160.1275115022787</v>
       </c>
       <c r="V34" t="n">
-        <v>127.610483283784</v>
+        <v>127.6104832837841</v>
       </c>
       <c r="W34" t="n">
-        <v>49.43518041388995</v>
+        <v>49.43518041389002</v>
       </c>
       <c r="X34" t="n">
-        <v>40.34194994914019</v>
+        <v>40.34194994914022</v>
       </c>
       <c r="Y34" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911175</v>
       </c>
     </row>
     <row r="35">
@@ -6911,58 +6911,58 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>773.6196706102298</v>
+        <v>773.6196706102301</v>
       </c>
       <c r="C35" t="n">
-        <v>670.4759701361755</v>
+        <v>670.4759701361756</v>
       </c>
       <c r="D35" t="n">
-        <v>579.8911966711632</v>
+        <v>579.8911966711634</v>
       </c>
       <c r="E35" t="n">
-        <v>455.2591985400815</v>
+        <v>455.2591985400816</v>
       </c>
       <c r="F35" t="n">
-        <v>298.5864553803356</v>
+        <v>298.5864553803358</v>
       </c>
       <c r="G35" t="n">
         <v>126.1276587878503</v>
       </c>
       <c r="H35" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="I35" t="n">
-        <v>33.73340056967348</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="J35" t="n">
-        <v>204.2335233968654</v>
+        <v>196.8113455144153</v>
       </c>
       <c r="K35" t="n">
-        <v>204.2335233968654</v>
+        <v>437.1150275604664</v>
       </c>
       <c r="L35" t="n">
-        <v>384.4669574583127</v>
+        <v>731.1245796202002</v>
       </c>
       <c r="M35" t="n">
-        <v>467.1941834614296</v>
+        <v>1044.382361117056</v>
       </c>
       <c r="N35" t="n">
-        <v>544.4175864529345</v>
+        <v>1121.605764108561</v>
       </c>
       <c r="O35" t="n">
-        <v>826.0403989248613</v>
+        <v>1157.616275007741</v>
       </c>
       <c r="P35" t="n">
-        <v>1058.239265802039</v>
+        <v>1157.616275007741</v>
       </c>
       <c r="Q35" t="n">
-        <v>1216.184125155466</v>
+        <v>1315.561134361169</v>
       </c>
       <c r="R35" t="n">
-        <v>1269.531001360107</v>
+        <v>1315.561134361169</v>
       </c>
       <c r="S35" t="n">
-        <v>1290.143552666531</v>
+        <v>1315.561134361169</v>
       </c>
       <c r="T35" t="n">
         <v>1315.561134361169</v>
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>272.3463780061996</v>
+        <v>376.5690692640632</v>
       </c>
       <c r="C36" t="n">
-        <v>187.0167620902267</v>
+        <v>376.5690692640632</v>
       </c>
       <c r="D36" t="n">
-        <v>187.0167620902267</v>
+        <v>376.5690692640632</v>
       </c>
       <c r="E36" t="n">
-        <v>187.0167620902267</v>
+        <v>203.0058653854777</v>
       </c>
       <c r="F36" t="n">
-        <v>187.0167620902267</v>
+        <v>203.0058653854777</v>
       </c>
       <c r="G36" t="n">
-        <v>187.0167620902267</v>
+        <v>134.5594438728002</v>
       </c>
       <c r="H36" t="n">
-        <v>187.0167620902267</v>
+        <v>134.5594438728002</v>
       </c>
       <c r="I36" t="n">
-        <v>78.76854090464988</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="J36" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="K36" t="n">
-        <v>65.19236910701477</v>
+        <v>65.1923691070148</v>
       </c>
       <c r="L36" t="n">
         <v>183.7594110345202</v>
@@ -7026,40 +7026,40 @@
         <v>366.8762207352999</v>
       </c>
       <c r="N36" t="n">
-        <v>573.2594770746659</v>
+        <v>573.2594770746661</v>
       </c>
       <c r="O36" t="n">
-        <v>706.3127540229493</v>
+        <v>706.3127540229495</v>
       </c>
       <c r="P36" t="n">
-        <v>791.0232372119365</v>
+        <v>791.0232372119368</v>
       </c>
       <c r="Q36" t="n">
-        <v>784.8246653722742</v>
+        <v>791.0232372119368</v>
       </c>
       <c r="R36" t="n">
-        <v>784.8246653722742</v>
+        <v>791.0232372119368</v>
       </c>
       <c r="S36" t="n">
-        <v>784.8246653722742</v>
+        <v>791.0232372119368</v>
       </c>
       <c r="T36" t="n">
-        <v>784.8246653722742</v>
+        <v>573.9042652871058</v>
       </c>
       <c r="U36" t="n">
-        <v>784.8246653722742</v>
+        <v>573.9042652871058</v>
       </c>
       <c r="V36" t="n">
-        <v>541.7449472759083</v>
+        <v>573.9042652871058</v>
       </c>
       <c r="W36" t="n">
-        <v>272.3463780061996</v>
+        <v>555.1049221909983</v>
       </c>
       <c r="X36" t="n">
-        <v>272.3463780061996</v>
+        <v>555.1049221909983</v>
       </c>
       <c r="Y36" t="n">
-        <v>272.3463780061996</v>
+        <v>555.1049221909983</v>
       </c>
     </row>
     <row r="37">
@@ -7069,49 +7069,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="C37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="D37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="E37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="F37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="G37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="H37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="I37" t="n">
-        <v>26.31122268722338</v>
+        <v>108.8623874074756</v>
       </c>
       <c r="J37" t="n">
-        <v>26.31122268722338</v>
+        <v>108.8623874074756</v>
       </c>
       <c r="K37" t="n">
-        <v>26.31122268722338</v>
+        <v>108.8623874074756</v>
       </c>
       <c r="L37" t="n">
-        <v>26.31122268722338</v>
+        <v>108.8623874074756</v>
       </c>
       <c r="M37" t="n">
-        <v>26.31122268722338</v>
+        <v>108.8623874074756</v>
       </c>
       <c r="N37" t="n">
-        <v>26.31122268722338</v>
+        <v>108.8623874074756</v>
       </c>
       <c r="O37" t="n">
-        <v>26.31122268722338</v>
+        <v>109.9279233847934</v>
       </c>
       <c r="P37" t="n">
-        <v>26.31122268722338</v>
+        <v>109.9279233847934</v>
       </c>
       <c r="Q37" t="n">
         <v>109.9279233847934</v>
@@ -7132,13 +7132,13 @@
         <v>68.9551349876983</v>
       </c>
       <c r="W37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="X37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="Y37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722337</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7148,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>773.6196706102302</v>
+        <v>773.6196706102299</v>
       </c>
       <c r="C38" t="n">
-        <v>670.475970136176</v>
+        <v>670.4759701361758</v>
       </c>
       <c r="D38" t="n">
-        <v>579.8911966711637</v>
+        <v>579.8911966711635</v>
       </c>
       <c r="E38" t="n">
-        <v>455.2591985400819</v>
+        <v>455.2591985400817</v>
       </c>
       <c r="F38" t="n">
-        <v>298.5864553803361</v>
+        <v>298.5864553803358</v>
       </c>
       <c r="G38" t="n">
         <v>126.1276587878503</v>
       </c>
       <c r="H38" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="I38" t="n">
         <v>33.73340056967348</v>
       </c>
       <c r="J38" t="n">
-        <v>204.2335233968654</v>
+        <v>33.73340056967348</v>
       </c>
       <c r="K38" t="n">
-        <v>376.0031484803969</v>
+        <v>274.0370826157246</v>
       </c>
       <c r="L38" t="n">
-        <v>670.0127005401307</v>
+        <v>322.4343331027119</v>
       </c>
       <c r="M38" t="n">
-        <v>752.7399265432476</v>
+        <v>648.0357138571011</v>
       </c>
       <c r="N38" t="n">
-        <v>829.9633295347526</v>
+        <v>970.8714184213525</v>
       </c>
       <c r="O38" t="n">
-        <v>1111.586142006679</v>
+        <v>1006.881929320533</v>
       </c>
       <c r="P38" t="n">
-        <v>1111.586142006679</v>
+        <v>1058.239265802039</v>
       </c>
       <c r="Q38" t="n">
-        <v>1269.531001360107</v>
+        <v>1216.184125155466</v>
       </c>
       <c r="R38" t="n">
         <v>1269.531001360107</v>
@@ -7214,10 +7214,10 @@
         <v>1149.251812383355</v>
       </c>
       <c r="X38" t="n">
-        <v>1036.434155430991</v>
+        <v>1036.43415543099</v>
       </c>
       <c r="Y38" t="n">
-        <v>900.8863438081778</v>
+        <v>900.8863438081776</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>199.8744265658089</v>
+        <v>636.5033510705008</v>
       </c>
       <c r="C39" t="n">
-        <v>199.8744265658089</v>
+        <v>447.0910768034645</v>
       </c>
       <c r="D39" t="n">
-        <v>199.8744265658089</v>
+        <v>286.3109605644962</v>
       </c>
       <c r="E39" t="n">
-        <v>26.31122268722338</v>
+        <v>286.3109605644962</v>
       </c>
       <c r="F39" t="n">
-        <v>26.31122268722338</v>
+        <v>261.5090154665725</v>
       </c>
       <c r="G39" t="n">
-        <v>26.31122268722338</v>
+        <v>261.5090154665725</v>
       </c>
       <c r="H39" t="n">
-        <v>26.31122268722338</v>
+        <v>134.5594438728002</v>
       </c>
       <c r="I39" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="J39" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="K39" t="n">
-        <v>65.19236910701477</v>
+        <v>65.1923691070148</v>
       </c>
       <c r="L39" t="n">
         <v>183.7594110345202</v>
@@ -7263,40 +7263,40 @@
         <v>366.8762207352999</v>
       </c>
       <c r="N39" t="n">
-        <v>573.2594770746659</v>
+        <v>573.2594770746661</v>
       </c>
       <c r="O39" t="n">
-        <v>706.3127540229493</v>
+        <v>706.3127540229495</v>
       </c>
       <c r="P39" t="n">
-        <v>791.0232372119365</v>
+        <v>791.0232372119368</v>
       </c>
       <c r="Q39" t="n">
-        <v>791.0232372119365</v>
+        <v>791.0232372119368</v>
       </c>
       <c r="R39" t="n">
-        <v>655.3026941666079</v>
+        <v>655.3026941666083</v>
       </c>
       <c r="S39" t="n">
-        <v>469.2729958355176</v>
+        <v>655.3026941666083</v>
       </c>
       <c r="T39" t="n">
-        <v>469.2729958355176</v>
+        <v>655.3026941666083</v>
       </c>
       <c r="U39" t="n">
-        <v>469.2729958355176</v>
+        <v>655.3026941666083</v>
       </c>
       <c r="V39" t="n">
-        <v>469.2729958355176</v>
+        <v>655.3026941666083</v>
       </c>
       <c r="W39" t="n">
-        <v>199.8744265658089</v>
+        <v>636.5033510705008</v>
       </c>
       <c r="X39" t="n">
-        <v>199.8744265658089</v>
+        <v>636.5033510705008</v>
       </c>
       <c r="Y39" t="n">
-        <v>199.8744265658089</v>
+        <v>636.5033510705008</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1231.944433663599</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="C40" t="n">
-        <v>1231.944433663599</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="D40" t="n">
-        <v>1231.944433663599</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="E40" t="n">
-        <v>1231.944433663599</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="F40" t="n">
-        <v>1231.944433663599</v>
+        <v>109.9279233847934</v>
       </c>
       <c r="G40" t="n">
-        <v>1231.944433663599</v>
+        <v>109.9279233847934</v>
       </c>
       <c r="H40" t="n">
-        <v>1291.452415399904</v>
+        <v>109.9279233847934</v>
       </c>
       <c r="I40" t="n">
-        <v>1291.452415399904</v>
+        <v>109.9279233847934</v>
       </c>
       <c r="J40" t="n">
-        <v>1291.452415399904</v>
+        <v>109.9279233847934</v>
       </c>
       <c r="K40" t="n">
-        <v>1291.452415399904</v>
+        <v>109.9279233847934</v>
       </c>
       <c r="L40" t="n">
-        <v>1291.452415399904</v>
+        <v>109.9279233847934</v>
       </c>
       <c r="M40" t="n">
-        <v>1291.452415399904</v>
+        <v>109.9279233847934</v>
       </c>
       <c r="N40" t="n">
-        <v>1291.452415399904</v>
+        <v>109.9279233847934</v>
       </c>
       <c r="O40" t="n">
-        <v>1291.452415399904</v>
+        <v>109.9279233847934</v>
       </c>
       <c r="P40" t="n">
-        <v>1291.452415399904</v>
+        <v>109.9279233847934</v>
       </c>
       <c r="Q40" t="n">
-        <v>1291.452415399904</v>
+        <v>109.9279233847934</v>
       </c>
       <c r="R40" t="n">
-        <v>1291.452415399904</v>
+        <v>109.9279233847934</v>
       </c>
       <c r="S40" t="n">
-        <v>1291.452415399904</v>
+        <v>109.9279233847934</v>
       </c>
       <c r="T40" t="n">
-        <v>1315.561134361169</v>
+        <v>109.9279233847934</v>
       </c>
       <c r="U40" t="n">
-        <v>1274.588345964074</v>
+        <v>68.9551349876983</v>
       </c>
       <c r="V40" t="n">
-        <v>1274.588345964074</v>
+        <v>68.9551349876983</v>
       </c>
       <c r="W40" t="n">
-        <v>1231.944433663599</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="X40" t="n">
-        <v>1231.944433663599</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="Y40" t="n">
-        <v>1231.944433663599</v>
+        <v>26.31122268722337</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>479.832415419442</v>
       </c>
       <c r="F41" t="n">
-        <v>315.5867941019059</v>
+        <v>315.586794101906</v>
       </c>
       <c r="G41" t="n">
         <v>135.5551193516299</v>
@@ -7409,34 +7409,34 @@
         <v>28.1658050932128</v>
       </c>
       <c r="J41" t="n">
-        <v>28.1658050932128</v>
+        <v>191.2437500379547</v>
       </c>
       <c r="K41" t="n">
-        <v>261.0473092568137</v>
+        <v>385.6644523461785</v>
       </c>
       <c r="L41" t="n">
-        <v>547.6346834340975</v>
+        <v>672.2518265234622</v>
       </c>
       <c r="M41" t="n">
-        <v>868.5520331275109</v>
+        <v>754.9790525265792</v>
       </c>
       <c r="N41" t="n">
-        <v>945.7754361190158</v>
+        <v>1070.392579208381</v>
       </c>
       <c r="O41" t="n">
-        <v>1219.976070708492</v>
+        <v>1106.403090107561</v>
       </c>
       <c r="P41" t="n">
-        <v>1362.36555633845</v>
+        <v>1331.179779102288</v>
       </c>
       <c r="Q41" t="n">
-        <v>1362.36555633845</v>
+        <v>1331.179779102288</v>
       </c>
       <c r="R41" t="n">
-        <v>1408.29025466064</v>
+        <v>1377.104477424478</v>
       </c>
       <c r="S41" t="n">
-        <v>1408.29025466064</v>
+        <v>1390.294850848453</v>
       </c>
       <c r="T41" t="n">
         <v>1408.29025466064</v>
@@ -7464,7 +7464,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>330.0075474350103</v>
+        <v>178.407081044239</v>
       </c>
       <c r="C42" t="n">
         <v>178.407081044239</v>
@@ -7491,13 +7491,13 @@
         <v>28.1658050932128</v>
       </c>
       <c r="K42" t="n">
-        <v>67.0469515130042</v>
+        <v>67.04695151300422</v>
       </c>
       <c r="L42" t="n">
         <v>185.6139934405096</v>
       </c>
       <c r="M42" t="n">
-        <v>368.7308031412893</v>
+        <v>368.7308031412894</v>
       </c>
       <c r="N42" t="n">
         <v>575.1140594806554</v>
@@ -7506,34 +7506,34 @@
         <v>708.1673364289388</v>
       </c>
       <c r="P42" t="n">
-        <v>792.877819617926</v>
+        <v>792.8778196179261</v>
       </c>
       <c r="Q42" t="n">
-        <v>792.877819617926</v>
+        <v>792.8778196179261</v>
       </c>
       <c r="R42" t="n">
-        <v>792.877819617926</v>
+        <v>792.8778196179261</v>
       </c>
       <c r="S42" t="n">
-        <v>599.4594867852738</v>
+        <v>792.8778196179261</v>
       </c>
       <c r="T42" t="n">
-        <v>599.4594867852738</v>
+        <v>575.758847693095</v>
       </c>
       <c r="U42" t="n">
-        <v>599.4594867852738</v>
+        <v>336.1349166012824</v>
       </c>
       <c r="V42" t="n">
-        <v>356.3797686889079</v>
+        <v>336.0815465207276</v>
       </c>
       <c r="W42" t="n">
-        <v>330.0075474350103</v>
+        <v>309.7093252668299</v>
       </c>
       <c r="X42" t="n">
-        <v>330.0075474350103</v>
+        <v>178.407081044239</v>
       </c>
       <c r="Y42" t="n">
-        <v>330.0075474350103</v>
+        <v>178.407081044239</v>
       </c>
     </row>
     <row r="43">
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>109.0050401613271</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="C43" t="n">
-        <v>109.0050401613271</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="D43" t="n">
-        <v>109.0050401613271</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="E43" t="n">
-        <v>109.0050401613271</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="F43" t="n">
-        <v>109.0050401613271</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="G43" t="n">
-        <v>109.0050401613271</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="H43" t="n">
-        <v>109.0050401613271</v>
+        <v>102.2321417622894</v>
       </c>
       <c r="I43" t="n">
-        <v>109.0050401613271</v>
+        <v>102.2321417622894</v>
       </c>
       <c r="J43" t="n">
-        <v>109.0050401613271</v>
+        <v>102.2321417622894</v>
       </c>
       <c r="K43" t="n">
-        <v>109.0050401613271</v>
+        <v>102.2321417622894</v>
       </c>
       <c r="L43" t="n">
-        <v>109.0050401613271</v>
+        <v>102.2321417622894</v>
       </c>
       <c r="M43" t="n">
-        <v>109.0050401613271</v>
+        <v>102.2321417622894</v>
       </c>
       <c r="N43" t="n">
-        <v>109.0050401613271</v>
+        <v>102.2321417622894</v>
       </c>
       <c r="O43" t="n">
-        <v>109.0050401613271</v>
+        <v>102.2321417622894</v>
       </c>
       <c r="P43" t="n">
-        <v>109.0050401613271</v>
+        <v>131.4867779132288</v>
       </c>
       <c r="Q43" t="n">
         <v>131.4867779132288</v>
@@ -7609,10 +7609,10 @@
         <v>28.1658050932128</v>
       </c>
       <c r="X43" t="n">
-        <v>46.65566792934909</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.65566792934909</v>
+        <v>28.1658050932128</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>479.8324154194419</v>
       </c>
       <c r="F44" t="n">
-        <v>315.586794101906</v>
+        <v>315.5867941019059</v>
       </c>
       <c r="G44" t="n">
         <v>135.5551193516299</v>
@@ -7649,31 +7649,31 @@
         <v>191.2437500379547</v>
       </c>
       <c r="K44" t="n">
-        <v>191.2437500379547</v>
+        <v>211.1713695186651</v>
       </c>
       <c r="L44" t="n">
-        <v>239.641000524942</v>
+        <v>497.7587436959489</v>
       </c>
       <c r="M44" t="n">
-        <v>366.2662473653052</v>
+        <v>818.6760933893622</v>
       </c>
       <c r="N44" t="n">
-        <v>681.6797740471065</v>
+        <v>1134.089620071164</v>
       </c>
       <c r="O44" t="n">
-        <v>955.8804086365832</v>
+        <v>1408.29025466064</v>
       </c>
       <c r="P44" t="n">
-        <v>1180.657097631311</v>
+        <v>1408.29025466064</v>
       </c>
       <c r="Q44" t="n">
-        <v>1331.179779102288</v>
+        <v>1408.29025466064</v>
       </c>
       <c r="R44" t="n">
-        <v>1377.104477424478</v>
+        <v>1408.29025466064</v>
       </c>
       <c r="S44" t="n">
-        <v>1390.294850848453</v>
+        <v>1408.29025466064</v>
       </c>
       <c r="T44" t="n">
         <v>1408.29025466064</v>
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>188.9459213321811</v>
+        <v>80.6231233106393</v>
       </c>
       <c r="C45" t="n">
-        <v>188.9459213321811</v>
+        <v>80.6231233106393</v>
       </c>
       <c r="D45" t="n">
-        <v>28.1658050932128</v>
+        <v>80.6231233106393</v>
       </c>
       <c r="E45" t="n">
-        <v>28.1658050932128</v>
+        <v>80.6231233106393</v>
       </c>
       <c r="F45" t="n">
-        <v>28.1658050932128</v>
+        <v>80.6231233106393</v>
       </c>
       <c r="G45" t="n">
-        <v>28.1658050932128</v>
+        <v>80.6231233106393</v>
       </c>
       <c r="H45" t="n">
-        <v>28.1658050932128</v>
+        <v>80.6231233106393</v>
       </c>
       <c r="I45" t="n">
-        <v>28.1658050932128</v>
+        <v>80.6231233106393</v>
       </c>
       <c r="J45" t="n">
         <v>28.1658050932128</v>
@@ -7752,25 +7752,25 @@
         <v>792.8778196179261</v>
       </c>
       <c r="S45" t="n">
-        <v>599.459486785274</v>
+        <v>792.8778196179261</v>
       </c>
       <c r="T45" t="n">
-        <v>599.459486785274</v>
+        <v>792.8778196179261</v>
       </c>
       <c r="U45" t="n">
-        <v>599.459486785274</v>
+        <v>553.2538885261135</v>
       </c>
       <c r="V45" t="n">
-        <v>599.4061167047191</v>
+        <v>310.1741704297476</v>
       </c>
       <c r="W45" t="n">
-        <v>573.0338954508214</v>
+        <v>80.6231233106393</v>
       </c>
       <c r="X45" t="n">
-        <v>367.4817742591162</v>
+        <v>80.6231233106393</v>
       </c>
       <c r="Y45" t="n">
-        <v>367.4817742591162</v>
+        <v>80.6231233106393</v>
       </c>
     </row>
     <row r="46">
@@ -7792,19 +7792,19 @@
         <v>28.1658050932128</v>
       </c>
       <c r="F46" t="n">
-        <v>28.1658050932128</v>
+        <v>56.35779107542672</v>
       </c>
       <c r="G46" t="n">
-        <v>28.1658050932128</v>
+        <v>56.35779107542672</v>
       </c>
       <c r="H46" t="n">
-        <v>28.1658050932128</v>
+        <v>56.35779107542672</v>
       </c>
       <c r="I46" t="n">
-        <v>28.1658050932128</v>
+        <v>131.4867779132288</v>
       </c>
       <c r="J46" t="n">
-        <v>28.1658050932128</v>
+        <v>131.4867779132288</v>
       </c>
       <c r="K46" t="n">
         <v>131.4867779132288</v>
@@ -8769,22 +8769,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>171.373473584151</v>
+        <v>132.0995883116344</v>
       </c>
       <c r="L12" t="n">
-        <v>240.3045437566416</v>
+        <v>152.0917238005121</v>
       </c>
       <c r="M12" t="n">
-        <v>238.8597051383724</v>
+        <v>238.8597051383726</v>
       </c>
       <c r="N12" t="n">
-        <v>224.1952211518978</v>
+        <v>224.195221151898</v>
       </c>
       <c r="O12" t="n">
-        <v>120.8255334486102</v>
+        <v>242.8748317222149</v>
       </c>
       <c r="P12" t="n">
-        <v>200.9264671236377</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -9006,19 +9006,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>171.373473584151</v>
+        <v>132.0995883116344</v>
       </c>
       <c r="L15" t="n">
-        <v>120.5398549409795</v>
+        <v>152.0917238005121</v>
       </c>
       <c r="M15" t="n">
-        <v>238.8597051383724</v>
+        <v>238.8597051383726</v>
       </c>
       <c r="N15" t="n">
-        <v>216.4732047389136</v>
+        <v>224.195221151898</v>
       </c>
       <c r="O15" t="n">
-        <v>242.8748317222148</v>
+        <v>242.8748317222149</v>
       </c>
       <c r="P15" t="n">
         <v>206.3638740786793</v>
@@ -9249,16 +9249,16 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M18" t="n">
-        <v>116.8104068647679</v>
+        <v>238.8597051383726</v>
       </c>
       <c r="N18" t="n">
-        <v>224.1952211518978</v>
+        <v>102.1459228782932</v>
       </c>
       <c r="O18" t="n">
-        <v>242.8748317222148</v>
+        <v>237.4374247671735</v>
       </c>
       <c r="P18" t="n">
-        <v>200.9264671236377</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9483,19 +9483,19 @@
         <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>120.5398549409795</v>
+        <v>234.8671368016002</v>
       </c>
       <c r="M21" t="n">
-        <v>238.8597051383724</v>
+        <v>238.8597051383726</v>
       </c>
       <c r="N21" t="n">
-        <v>224.1952211518978</v>
+        <v>102.1459228782932</v>
       </c>
       <c r="O21" t="n">
-        <v>242.8748317222148</v>
+        <v>242.8748317222149</v>
       </c>
       <c r="P21" t="n">
-        <v>198.6418576656951</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -9717,22 +9717,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>165.9360666291093</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M24" t="n">
-        <v>238.8597051383724</v>
+        <v>238.8597051383726</v>
       </c>
       <c r="N24" t="n">
-        <v>224.1952211518978</v>
+        <v>224.1952211518979</v>
       </c>
       <c r="O24" t="n">
-        <v>120.8255334486102</v>
+        <v>200.9542711289095</v>
       </c>
       <c r="P24" t="n">
-        <v>206.3638740786793</v>
+        <v>120.7977294433387</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>57.65546642937412</v>
+        <v>179.7047647029787</v>
       </c>
       <c r="C11" t="n">
         <v>155.8230217063242</v>
       </c>
       <c r="D11" t="n">
-        <v>35.88866204798182</v>
+        <v>143.3896839673726</v>
       </c>
       <c r="E11" t="n">
-        <v>55.04713811317694</v>
+        <v>55.04713811317683</v>
       </c>
       <c r="F11" t="n">
         <v>208.8167739651588</v>
       </c>
       <c r="G11" t="n">
-        <v>224.4449668635718</v>
+        <v>144.9803782371131</v>
       </c>
       <c r="H11" t="n">
-        <v>152.5290299766312</v>
+        <v>30.47973170302652</v>
       </c>
       <c r="I11" t="n">
-        <v>46.21360886079827</v>
+        <v>46.21360886079828</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>32.88999934163207</v>
       </c>
       <c r="T11" t="n">
-        <v>28.03643329293229</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>55.76720738385734</v>
@@ -23318,13 +23318,13 @@
         <v>126.4973079342974</v>
       </c>
       <c r="W11" t="n">
-        <v>21.46468987730768</v>
+        <v>143.5139881509122</v>
       </c>
       <c r="X11" t="n">
         <v>165.4002386198515</v>
       </c>
       <c r="Y11" t="n">
-        <v>187.9030917435952</v>
+        <v>65.85379346999056</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>57.65546642937403</v>
+        <v>57.655466429374</v>
       </c>
       <c r="C14" t="n">
-        <v>155.8230217063241</v>
+        <v>155.8230217063242</v>
       </c>
       <c r="D14" t="n">
-        <v>143.3896839673725</v>
+        <v>143.3896839673726</v>
       </c>
       <c r="E14" t="n">
-        <v>55.04713811317686</v>
+        <v>177.0964363867815</v>
       </c>
       <c r="F14" t="n">
-        <v>208.8167739651587</v>
+        <v>86.76747569155415</v>
       </c>
       <c r="G14" t="n">
-        <v>149.8339442858129</v>
+        <v>224.4449668635718</v>
       </c>
       <c r="H14" t="n">
-        <v>152.5290299766311</v>
+        <v>105.9544406918047</v>
       </c>
       <c r="I14" t="n">
-        <v>46.21360886079819</v>
+        <v>46.21360886079827</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>28.03643329293221</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>55.76720738385725</v>
+        <v>55.76720738385734</v>
       </c>
       <c r="V14" t="n">
-        <v>126.4973079342973</v>
+        <v>126.4973079342974</v>
       </c>
       <c r="W14" t="n">
         <v>143.5139881509122</v>
       </c>
       <c r="X14" t="n">
-        <v>43.35094034624683</v>
+        <v>43.3509403462468</v>
       </c>
       <c r="Y14" t="n">
         <v>187.9030917435952</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-1.062377471871187e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -25877,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>970204.5531941665</v>
+        <v>970204.5531941667</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>970204.5531941667</v>
+        <v>970204.5531941669</v>
       </c>
     </row>
     <row r="7">
@@ -26314,46 +26314,46 @@
         <v>507110.8972264644</v>
       </c>
       <c r="C2" t="n">
-        <v>507110.8972264643</v>
+        <v>507110.8972264642</v>
       </c>
       <c r="D2" t="n">
         <v>507110.8972264643</v>
       </c>
       <c r="E2" t="n">
-        <v>436994.3011867757</v>
+        <v>436994.301186776</v>
       </c>
       <c r="F2" t="n">
-        <v>436994.3011867758</v>
+        <v>436994.3011867761</v>
       </c>
       <c r="G2" t="n">
-        <v>508138.165593658</v>
+        <v>508138.1655936579</v>
       </c>
       <c r="H2" t="n">
         <v>508138.1655936579</v>
       </c>
       <c r="I2" t="n">
-        <v>508138.165593658</v>
+        <v>508138.1655936579</v>
       </c>
       <c r="J2" t="n">
+        <v>508138.1655936583</v>
+      </c>
+      <c r="K2" t="n">
         <v>508138.1655936585</v>
       </c>
-      <c r="K2" t="n">
-        <v>508138.1655936586</v>
-      </c>
       <c r="L2" t="n">
-        <v>508138.1655936583</v>
+        <v>508138.1655936582</v>
       </c>
       <c r="M2" t="n">
         <v>508138.1655936582</v>
       </c>
       <c r="N2" t="n">
-        <v>508138.1655936583</v>
+        <v>508138.1655936582</v>
       </c>
       <c r="O2" t="n">
+        <v>508138.1655936579</v>
+      </c>
+      <c r="P2" t="n">
         <v>508138.165593658</v>
-      </c>
-      <c r="P2" t="n">
-        <v>508138.1655936579</v>
       </c>
     </row>
     <row r="3">
@@ -26375,13 +26375,13 @@
         <v>275373.0470845677</v>
       </c>
       <c r="F3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>101197.8463474377</v>
+        <v>101197.8463474379</v>
       </c>
       <c r="H3" t="n">
-        <v>9.094947017729282e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>101197.8463474377</v>
+        <v>101197.8463474379</v>
       </c>
       <c r="M3" t="n">
-        <v>28140.86133098001</v>
+        <v>28140.86133097985</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>68716.99883240162</v>
+        <v>68716.99883240164</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26439,10 +26439,10 @@
         <v>420238.0338746422</v>
       </c>
       <c r="J4" t="n">
+        <v>419094.788274104</v>
+      </c>
+      <c r="K4" t="n">
         <v>419094.7882741041</v>
-      </c>
-      <c r="K4" t="n">
-        <v>419094.788274104</v>
       </c>
       <c r="L4" t="n">
         <v>419094.788274104</v>
@@ -26454,7 +26454,7 @@
         <v>418553.2323741539</v>
       </c>
       <c r="O4" t="n">
-        <v>418653.3257278841</v>
+        <v>418653.3257278842</v>
       </c>
       <c r="P4" t="n">
         <v>418653.3257278842</v>
@@ -26476,37 +26476,37 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>26025.86226334829</v>
+        <v>26025.8622633483</v>
       </c>
       <c r="F5" t="n">
         <v>26025.8622633483</v>
       </c>
       <c r="G5" t="n">
+        <v>36660.36444407675</v>
+      </c>
+      <c r="H5" t="n">
         <v>36660.36444407673</v>
       </c>
-      <c r="H5" t="n">
-        <v>36660.36444407674</v>
-      </c>
       <c r="I5" t="n">
-        <v>36660.36444407674</v>
+        <v>36660.36444407673</v>
       </c>
       <c r="J5" t="n">
         <v>47580.58365082261</v>
       </c>
       <c r="K5" t="n">
-        <v>47580.58365082261</v>
+        <v>47580.58365082262</v>
       </c>
       <c r="L5" t="n">
         <v>47580.58365082261</v>
       </c>
       <c r="M5" t="n">
-        <v>43117.20390483014</v>
+        <v>43117.20390483013</v>
       </c>
       <c r="N5" t="n">
-        <v>43117.20390483014</v>
+        <v>43117.20390483013</v>
       </c>
       <c r="O5" t="n">
-        <v>43896.40868247331</v>
+        <v>43896.40868247332</v>
       </c>
       <c r="P5" t="n">
         <v>43896.40868247332</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16806.64615066912</v>
+        <v>16802.17976646387</v>
       </c>
       <c r="C6" t="n">
-        <v>16806.646150669</v>
+        <v>16802.17976646376</v>
       </c>
       <c r="D6" t="n">
-        <v>16806.646150669</v>
+        <v>16802.17976646381</v>
       </c>
       <c r="E6" t="n">
-        <v>-214139.1320071992</v>
+        <v>-214448.4531567941</v>
       </c>
       <c r="F6" t="n">
-        <v>61233.91507736861</v>
+        <v>60924.59392777377</v>
       </c>
       <c r="G6" t="n">
-        <v>-49958.07907249861</v>
+        <v>-49958.07907249897</v>
       </c>
       <c r="H6" t="n">
-        <v>51239.7672749388</v>
+        <v>51239.76727493904</v>
       </c>
       <c r="I6" t="n">
-        <v>51239.76727493903</v>
+        <v>51239.76727493898</v>
       </c>
       <c r="J6" t="n">
-        <v>-113725.255142041</v>
+        <v>-113725.2551420411</v>
       </c>
       <c r="K6" t="n">
-        <v>41462.79366873196</v>
+        <v>41462.79366873177</v>
       </c>
       <c r="L6" t="n">
-        <v>-59735.05267870598</v>
+        <v>-59735.05267870633</v>
       </c>
       <c r="M6" t="n">
-        <v>18326.86798369414</v>
+        <v>18326.86798369433</v>
       </c>
       <c r="N6" t="n">
-        <v>46467.72931467429</v>
+        <v>46467.72931467418</v>
       </c>
       <c r="O6" t="n">
-        <v>-23128.56764910104</v>
+        <v>-23128.56764910128</v>
       </c>
       <c r="P6" t="n">
-        <v>45588.43118330037</v>
+        <v>45588.43118330048</v>
       </c>
     </row>
   </sheetData>
@@ -26695,16 +26695,16 @@
         <v>194.3824756748546</v>
       </c>
       <c r="F2" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="G2" t="n">
+        <v>320.879783609152</v>
+      </c>
+      <c r="H2" t="n">
         <v>320.8797836091519</v>
       </c>
-      <c r="H2" t="n">
-        <v>320.879783609152</v>
-      </c>
       <c r="I2" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091519</v>
       </c>
       <c r="J2" t="n">
         <v>212.9171572481403</v>
@@ -26713,7 +26713,7 @@
         <v>212.9171572481403</v>
       </c>
       <c r="L2" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481402</v>
       </c>
       <c r="M2" t="n">
         <v>248.0932339118652</v>
@@ -26768,13 +26768,13 @@
         <v>103.8405771010908</v>
       </c>
       <c r="M3" t="n">
-        <v>103.8405771010907</v>
+        <v>103.8405771010908</v>
       </c>
       <c r="N3" t="n">
-        <v>103.8405771010907</v>
+        <v>103.8405771010908</v>
       </c>
       <c r="O3" t="n">
-        <v>103.8405771010907</v>
+        <v>103.8405771010908</v>
       </c>
       <c r="P3" t="n">
         <v>103.8405771010908</v>
@@ -26796,34 +26796,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="F4" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="G4" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="H4" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="I4" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="J4" t="n">
-        <v>450.9395818638968</v>
+        <v>450.9395818638969</v>
       </c>
       <c r="K4" t="n">
-        <v>450.9395818638968</v>
+        <v>450.939581863897</v>
       </c>
       <c r="L4" t="n">
         <v>450.9395818638968</v>
       </c>
       <c r="M4" t="n">
-        <v>328.8902835902922</v>
+        <v>328.8902835902921</v>
       </c>
       <c r="N4" t="n">
-        <v>328.8902835902922</v>
+        <v>328.8902835902921</v>
       </c>
       <c r="O4" t="n">
         <v>352.07256366516</v>
@@ -26917,34 +26917,34 @@
         <v>194.3824756748546</v>
       </c>
       <c r="F2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>126.4973079342972</v>
+        <v>126.4973079342974</v>
       </c>
       <c r="H2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>86.41984931384297</v>
+        <v>86.419849313843</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>126.4973079342972</v>
+        <v>126.4973079342973</v>
       </c>
       <c r="M2" t="n">
-        <v>35.17607666372501</v>
+        <v>35.17607666372481</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>78.92269993763074</v>
+        <v>78.92269993763077</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.18228007486783</v>
+        <v>23.18228007486789</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27154,19 +27154,19 @@
         <v>194.3824756748546</v>
       </c>
       <c r="K2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>126.4973079342972</v>
+        <v>126.4973079342974</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>86.41984931384297</v>
+        <v>86.419849313843</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28111,31 +28111,31 @@
         <v>194.3824756748546</v>
       </c>
       <c r="J11" t="n">
-        <v>75.87088762177224</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="K11" t="n">
-        <v>127.4115402197615</v>
+        <v>84.62848623043746</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>38.48644372500158</v>
+        <v>38.48644372500169</v>
       </c>
       <c r="N11" t="n">
-        <v>44.04586090844808</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>31.85764845834022</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>13.54892393491822</v>
+        <v>13.54892393491823</v>
       </c>
       <c r="Q11" t="n">
         <v>88.55297193870595</v>
       </c>
       <c r="R11" t="n">
-        <v>194.2075003718244</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="S11" t="n">
         <v>194.3824756748546</v>
@@ -28172,7 +28172,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
-        <v>159.1723150765785</v>
+        <v>91.23121198468527</v>
       </c>
       <c r="E12" t="n">
         <v>171.8275718397997</v>
@@ -28181,16 +28181,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>26.68956491791135</v>
+        <v>148.7388631915159</v>
       </c>
       <c r="H12" t="n">
-        <v>87.21586458205851</v>
+        <v>3.630777604229799</v>
       </c>
       <c r="I12" t="n">
         <v>107.1657389737211</v>
       </c>
       <c r="J12" t="n">
-        <v>51.93274503525222</v>
+        <v>51.93274503525223</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,7 +28211,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.136586121265619</v>
+        <v>6.136586121265623</v>
       </c>
       <c r="R12" t="n">
         <v>134.3633376148752</v>
@@ -28223,13 +28223,13 @@
         <v>194.3824756748546</v>
       </c>
       <c r="U12" t="n">
-        <v>115.1783935072899</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="V12" t="n">
         <v>194.3824756748546</v>
       </c>
       <c r="W12" t="n">
-        <v>194.3824756748546</v>
+        <v>144.6552853034069</v>
       </c>
       <c r="X12" t="n">
         <v>194.3824756748546</v>
@@ -28251,13 +28251,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>194.3824756748546</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>194.3824756748546</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
         <v>168.6959616282545</v>
@@ -28272,22 +28272,22 @@
         <v>119.8993073508208</v>
       </c>
       <c r="K13" t="n">
-        <v>78.85715197700998</v>
+        <v>66.47076232176848</v>
       </c>
       <c r="L13" t="n">
-        <v>31.43620997383527</v>
+        <v>31.43620997383528</v>
       </c>
       <c r="M13" t="n">
-        <v>146.5116571916061</v>
+        <v>146.5116571916062</v>
       </c>
       <c r="N13" t="n">
-        <v>15.7835913661001</v>
+        <v>132.8253999018933</v>
       </c>
       <c r="O13" t="n">
-        <v>158.8478443507813</v>
+        <v>36.79854607717667</v>
       </c>
       <c r="P13" t="n">
-        <v>57.89645227716782</v>
+        <v>179.9457505507725</v>
       </c>
       <c r="Q13" t="n">
         <v>126.8139378168763</v>
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="C14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="D14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="E14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="F14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="G14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="H14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="I14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="J14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="K14" t="n">
-        <v>5.362241946156992</v>
+        <v>5.362241946156999</v>
       </c>
       <c r="L14" t="n">
-        <v>32.07764316919231</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>12.09815957616379</v>
       </c>
       <c r="O14" t="n">
-        <v>85.67504484008919</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>13.54892393491822</v>
+        <v>13.54892393491823</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.55297193870595</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="R14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.2075003718244</v>
       </c>
       <c r="S14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="T14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="U14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="V14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="W14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="X14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="Y14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
     </row>
     <row r="15">
@@ -28418,7 +28418,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>86.28811623050382</v>
+        <v>148.7388631915159</v>
       </c>
       <c r="H15" t="n">
         <v>125.6800758778345</v>
@@ -28427,7 +28427,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J15" t="n">
-        <v>51.93274503525222</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,31 +28448,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.136586121265619</v>
+        <v>6.136586121265623</v>
       </c>
       <c r="R15" t="n">
-        <v>134.3633376148752</v>
+        <v>68.62778918678649</v>
       </c>
       <c r="S15" t="n">
-        <v>191.4841495043256</v>
+        <v>69.43485123072097</v>
       </c>
       <c r="T15" t="n">
-        <v>92.89848393197811</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="U15" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="V15" t="n">
-        <v>118.5996226417977</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="W15" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="X15" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="Y15" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>177.6169206649681</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="C16" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="E16" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="G16" t="n">
-        <v>168.6959616282545</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="H16" t="n">
-        <v>165.7816030517371</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="I16" t="n">
-        <v>164.7082190429235</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="J16" t="n">
-        <v>131.6573726228956</v>
+        <v>119.8993073508208</v>
       </c>
       <c r="K16" t="n">
-        <v>66.47076232176846</v>
+        <v>66.47076232176848</v>
       </c>
       <c r="L16" t="n">
-        <v>153.4855082474398</v>
+        <v>153.48550824744</v>
       </c>
       <c r="M16" t="n">
-        <v>146.5116571916061</v>
+        <v>74.93640354519866</v>
       </c>
       <c r="N16" t="n">
-        <v>15.7835913661001</v>
+        <v>15.78359136610011</v>
       </c>
       <c r="O16" t="n">
-        <v>158.8478443507813</v>
+        <v>36.79854607717667</v>
       </c>
       <c r="P16" t="n">
-        <v>57.89645227716782</v>
+        <v>57.89645227716783</v>
       </c>
       <c r="Q16" t="n">
         <v>126.8139378168763</v>
       </c>
       <c r="R16" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="S16" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="T16" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="U16" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="V16" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="W16" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="X16" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="Y16" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
     </row>
     <row r="17">
@@ -28561,34 +28561,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>320.8797836091519</v>
+        <v>320.879783609152</v>
       </c>
       <c r="C17" t="n">
-        <v>320.8797836091519</v>
+        <v>320.879783609152</v>
       </c>
       <c r="D17" t="n">
-        <v>320.8797836091519</v>
+        <v>320.879783609152</v>
       </c>
       <c r="E17" t="n">
-        <v>320.8797836091519</v>
+        <v>320.879783609152</v>
       </c>
       <c r="F17" t="n">
-        <v>320.8797836091519</v>
+        <v>320.879783609152</v>
       </c>
       <c r="G17" t="n">
-        <v>320.8797836091519</v>
+        <v>320.879783609152</v>
       </c>
       <c r="H17" t="n">
-        <v>320.8797836091519</v>
+        <v>320.879783609152</v>
       </c>
       <c r="I17" t="n">
-        <v>240.5960845356529</v>
+        <v>320.879783609152</v>
       </c>
       <c r="J17" t="n">
-        <v>75.87088762177224</v>
+        <v>75.87088762177225</v>
       </c>
       <c r="K17" t="n">
-        <v>5.362241946156992</v>
+        <v>5.362241946156999</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28603,34 +28603,34 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>13.54892393491822</v>
+        <v>13.54892393491823</v>
       </c>
       <c r="Q17" t="n">
         <v>88.55297193870595</v>
       </c>
       <c r="R17" t="n">
-        <v>316.2567986454289</v>
+        <v>194.2075003718244</v>
       </c>
       <c r="S17" t="n">
-        <v>320.8797836091519</v>
+        <v>312.6979267579424</v>
       </c>
       <c r="T17" t="n">
         <v>222.4189089677869</v>
       </c>
       <c r="U17" t="n">
-        <v>270.9323275578366</v>
+        <v>320.879783609152</v>
       </c>
       <c r="V17" t="n">
-        <v>320.8797836091519</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
-        <v>320.8797836091519</v>
+        <v>320.879783609152</v>
       </c>
       <c r="X17" t="n">
-        <v>320.8797836091519</v>
+        <v>320.879783609152</v>
       </c>
       <c r="Y17" t="n">
-        <v>320.8797836091519</v>
+        <v>320.879783609152</v>
       </c>
     </row>
     <row r="18">
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>121.182217513527</v>
       </c>
       <c r="C18" t="n">
         <v>187.5181515243659</v>
@@ -28652,10 +28652,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>36.77414084632377</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>26.68956491791135</v>
+        <v>148.7388631915159</v>
       </c>
       <c r="H18" t="n">
         <v>125.6800758778345</v>
@@ -28664,7 +28664,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J18" t="n">
-        <v>51.93274503525222</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,28 +28685,28 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.136586121265619</v>
+        <v>6.136586121265623</v>
       </c>
       <c r="R18" t="n">
-        <v>26.86231569548427</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S18" t="n">
         <v>191.4841495043256</v>
       </c>
       <c r="T18" t="n">
-        <v>214.9477822055827</v>
+        <v>92.89848393197799</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2276917808945</v>
+        <v>115.1783935072898</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>144.6552853034069</v>
       </c>
       <c r="X18" t="n">
-        <v>95.26361616586604</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
         <v>223.3842861340256</v>
@@ -28746,22 +28746,22 @@
         <v>119.8993073508208</v>
       </c>
       <c r="K19" t="n">
-        <v>66.47076232176846</v>
+        <v>66.47076232176848</v>
       </c>
       <c r="L19" t="n">
-        <v>31.43620997383527</v>
+        <v>31.43620997383528</v>
       </c>
       <c r="M19" t="n">
-        <v>24.4623589180015</v>
+        <v>24.46235891800151</v>
       </c>
       <c r="N19" t="n">
-        <v>15.7835913661001</v>
+        <v>15.78359136610011</v>
       </c>
       <c r="O19" t="n">
         <v>36.79854607717667</v>
       </c>
       <c r="P19" t="n">
-        <v>57.89645227716782</v>
+        <v>57.89645227716783</v>
       </c>
       <c r="Q19" t="n">
         <v>126.8139378168763</v>
@@ -28798,34 +28798,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091519</v>
       </c>
       <c r="C20" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091519</v>
       </c>
       <c r="D20" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091519</v>
       </c>
       <c r="E20" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091519</v>
       </c>
       <c r="F20" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091519</v>
       </c>
       <c r="G20" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091519</v>
       </c>
       <c r="H20" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091519</v>
       </c>
       <c r="I20" t="n">
-        <v>320.879783609152</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="J20" t="n">
-        <v>75.87088762177224</v>
+        <v>75.87088762177225</v>
       </c>
       <c r="K20" t="n">
-        <v>5.362241946156992</v>
+        <v>5.362241946156999</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28840,34 +28840,34 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>13.54892393491822</v>
+        <v>13.54892393491823</v>
       </c>
       <c r="Q20" t="n">
-        <v>173.9784236801611</v>
+        <v>88.55297193870595</v>
       </c>
       <c r="R20" t="n">
         <v>194.2075003718244</v>
       </c>
       <c r="S20" t="n">
-        <v>227.2724750164867</v>
+        <v>320.8797836091519</v>
       </c>
       <c r="T20" t="n">
-        <v>222.4189089677869</v>
+        <v>320.8797836091519</v>
       </c>
       <c r="U20" t="n">
-        <v>320.879783609152</v>
+        <v>294.5207511900767</v>
       </c>
       <c r="V20" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091519</v>
       </c>
       <c r="W20" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091519</v>
       </c>
       <c r="X20" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091519</v>
       </c>
       <c r="Y20" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091519</v>
       </c>
     </row>
     <row r="21">
@@ -28883,7 +28883,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>37.12301680297386</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
@@ -28901,7 +28901,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J21" t="n">
-        <v>51.93274503525222</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,19 +28922,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.136586121265619</v>
+        <v>6.136586121265623</v>
       </c>
       <c r="R21" t="n">
-        <v>12.31403934127064</v>
+        <v>12.31403934127053</v>
       </c>
       <c r="S21" t="n">
-        <v>191.4841495043256</v>
+        <v>135.9158726201869</v>
       </c>
       <c r="T21" t="n">
         <v>214.9477822055827</v>
       </c>
       <c r="U21" t="n">
-        <v>129.7266698615035</v>
+        <v>237.2276917808945</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -28943,10 +28943,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>95.26361616586604</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>101.3349878604211</v>
+        <v>101.3349878604209</v>
       </c>
     </row>
     <row r="22">
@@ -28983,22 +28983,22 @@
         <v>119.8993073508208</v>
       </c>
       <c r="K22" t="n">
-        <v>66.47076232176846</v>
+        <v>66.47076232176848</v>
       </c>
       <c r="L22" t="n">
-        <v>31.43620997383527</v>
+        <v>31.43620997383528</v>
       </c>
       <c r="M22" t="n">
-        <v>24.4623589180015</v>
+        <v>24.46235891800151</v>
       </c>
       <c r="N22" t="n">
-        <v>15.7835913661001</v>
+        <v>15.78359136610011</v>
       </c>
       <c r="O22" t="n">
         <v>36.79854607717667</v>
       </c>
       <c r="P22" t="n">
-        <v>57.89645227716782</v>
+        <v>57.89645227716783</v>
       </c>
       <c r="Q22" t="n">
         <v>126.8139378168763</v>
@@ -29035,34 +29035,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091519</v>
       </c>
       <c r="C23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091519</v>
       </c>
       <c r="D23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091519</v>
       </c>
       <c r="E23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091519</v>
       </c>
       <c r="F23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091519</v>
       </c>
       <c r="G23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091519</v>
       </c>
       <c r="H23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091519</v>
       </c>
       <c r="I23" t="n">
-        <v>240.5960845356529</v>
+        <v>312.6979267579426</v>
       </c>
       <c r="J23" t="n">
-        <v>119.530740163122</v>
+        <v>75.87088762177225</v>
       </c>
       <c r="K23" t="n">
-        <v>5.362241946156992</v>
+        <v>5.362241946156999</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29077,34 +29077,34 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>13.54892393491822</v>
+        <v>13.54892393491823</v>
       </c>
       <c r="Q23" t="n">
-        <v>210.6022702123105</v>
+        <v>88.55297193870595</v>
       </c>
       <c r="R23" t="n">
         <v>194.2075003718244</v>
       </c>
       <c r="S23" t="n">
-        <v>227.2724750164867</v>
+        <v>320.8797836091519</v>
       </c>
       <c r="T23" t="n">
         <v>222.4189089677869</v>
       </c>
       <c r="U23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091519</v>
       </c>
       <c r="V23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091519</v>
       </c>
       <c r="W23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091519</v>
       </c>
       <c r="X23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091519</v>
       </c>
       <c r="Y23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091519</v>
       </c>
     </row>
     <row r="24">
@@ -29120,25 +29120,25 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>37.12301680297398</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>36.77414084632377</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>41.23784127212502</v>
+        <v>148.7388631915159</v>
       </c>
       <c r="H24" t="n">
-        <v>125.6800758778345</v>
+        <v>61.36482581507771</v>
       </c>
       <c r="I24" t="n">
-        <v>107.1657389737211</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>51.93274503525222</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,13 +29159,13 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.136586121265619</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>134.3633376148752</v>
+        <v>12.31403934127054</v>
       </c>
       <c r="S24" t="n">
-        <v>191.4841495043256</v>
+        <v>69.43485123072097</v>
       </c>
       <c r="T24" t="n">
         <v>214.9477822055827</v>
@@ -29177,7 +29177,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>144.655285303407</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
         <v>217.3129144394706</v>
@@ -29220,22 +29220,22 @@
         <v>119.8993073508208</v>
       </c>
       <c r="K25" t="n">
-        <v>66.47076232176846</v>
+        <v>66.47076232176848</v>
       </c>
       <c r="L25" t="n">
-        <v>31.43620997383527</v>
+        <v>31.43620997383528</v>
       </c>
       <c r="M25" t="n">
-        <v>24.4623589180015</v>
+        <v>24.46235891800151</v>
       </c>
       <c r="N25" t="n">
-        <v>15.7835913661001</v>
+        <v>15.78359136610011</v>
       </c>
       <c r="O25" t="n">
         <v>36.79854607717667</v>
       </c>
       <c r="P25" t="n">
-        <v>57.89645227716782</v>
+        <v>57.89645227716783</v>
       </c>
       <c r="Q25" t="n">
         <v>126.8139378168763</v>
@@ -29320,7 +29320,7 @@
         <v>212.9171572481403</v>
       </c>
       <c r="R26" t="n">
-        <v>212.9171572481396</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="S26" t="n">
         <v>212.9171572481403</v>
@@ -29366,16 +29366,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>148.7388631915159</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>125.6800758778345</v>
+        <v>72.04818087097604</v>
       </c>
       <c r="I27" t="n">
         <v>107.1657389737211</v>
       </c>
       <c r="J27" t="n">
-        <v>51.93274503525222</v>
+        <v>51.93274503525223</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,7 +29396,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.136586121265619</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>134.3633376148752</v>
@@ -29408,13 +29408,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
         <v>212.9171572481403</v>
       </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
       <c r="W27" t="n">
-        <v>4.409812928500003</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="X27" t="n">
         <v>212.9171572481403</v>
@@ -29442,7 +29442,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
-        <v>193.9644518450907</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
         <v>168.6959616282545</v>
@@ -29457,22 +29457,22 @@
         <v>119.8993073508208</v>
       </c>
       <c r="K28" t="n">
-        <v>66.47076232176846</v>
+        <v>66.47076232176848</v>
       </c>
       <c r="L28" t="n">
         <v>212.9171572481403</v>
       </c>
       <c r="M28" t="n">
-        <v>24.4623589180015</v>
+        <v>79.49992854464629</v>
       </c>
       <c r="N28" t="n">
-        <v>15.7835913661001</v>
+        <v>15.78359136610011</v>
       </c>
       <c r="O28" t="n">
         <v>36.79854607717667</v>
       </c>
       <c r="P28" t="n">
-        <v>57.89645227716782</v>
+        <v>57.89645227716783</v>
       </c>
       <c r="Q28" t="n">
         <v>126.8139378168763</v>
@@ -29551,7 +29551,7 @@
         <v>212.9171572481403</v>
       </c>
       <c r="P29" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481413</v>
       </c>
       <c r="Q29" t="n">
         <v>212.9171572481403</v>
@@ -29600,7 +29600,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
         <v>148.7388631915159</v>
@@ -29609,10 +29609,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>107.1657389737211</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>51.93274503525222</v>
+        <v>51.93274503525223</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,31 +29633,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.136586121265619</v>
+        <v>6.136586121265623</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S30" t="n">
         <v>191.4841495043256</v>
       </c>
       <c r="T30" t="n">
-        <v>212.9171572481403</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>212.9171572481403</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="W30" t="n">
-        <v>210.3595082929981</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="X30" t="n">
         <v>212.9171572481403</v>
       </c>
       <c r="Y30" t="n">
-        <v>212.9171572481403</v>
+        <v>24.33847053191573</v>
       </c>
     </row>
     <row r="31">
@@ -29673,16 +29673,16 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
-        <v>212.9171572481403</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
-        <v>212.9171572481403</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.6959616282545</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="H31" t="n">
         <v>165.7816030517371</v>
@@ -29691,31 +29691,31 @@
         <v>212.9171572481403</v>
       </c>
       <c r="J31" t="n">
-        <v>169.233363013209</v>
+        <v>119.8993073508208</v>
       </c>
       <c r="K31" t="n">
-        <v>66.47076232176846</v>
+        <v>66.47076232176848</v>
       </c>
       <c r="L31" t="n">
-        <v>31.43620997383527</v>
+        <v>31.43620997383528</v>
       </c>
       <c r="M31" t="n">
-        <v>24.4623589180015</v>
+        <v>24.46235891800151</v>
       </c>
       <c r="N31" t="n">
-        <v>15.7835913661001</v>
+        <v>15.78359136610011</v>
       </c>
       <c r="O31" t="n">
-        <v>36.79854607717667</v>
+        <v>171.1833096391589</v>
       </c>
       <c r="P31" t="n">
-        <v>57.89645227716782</v>
+        <v>57.89645227716783</v>
       </c>
       <c r="Q31" t="n">
         <v>126.8139378168763</v>
       </c>
       <c r="R31" t="n">
-        <v>203.2135377342752</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="S31" t="n">
         <v>212.9171572481403</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481402</v>
       </c>
       <c r="C32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481402</v>
       </c>
       <c r="D32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481402</v>
       </c>
       <c r="E32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481402</v>
       </c>
       <c r="F32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481402</v>
       </c>
       <c r="G32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481402</v>
       </c>
       <c r="H32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481402</v>
       </c>
       <c r="I32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481402</v>
       </c>
       <c r="J32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481402</v>
       </c>
       <c r="K32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481402</v>
       </c>
       <c r="L32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481402</v>
       </c>
       <c r="M32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481402</v>
       </c>
       <c r="N32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481402</v>
       </c>
       <c r="O32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481402</v>
       </c>
       <c r="P32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481402</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481402</v>
       </c>
       <c r="R32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481402</v>
       </c>
       <c r="S32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481402</v>
       </c>
       <c r="T32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481402</v>
       </c>
       <c r="U32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481402</v>
       </c>
       <c r="V32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481402</v>
       </c>
       <c r="W32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481402</v>
       </c>
       <c r="X32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481402</v>
       </c>
       <c r="Y32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481402</v>
       </c>
     </row>
     <row r="33">
@@ -29825,7 +29825,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
@@ -29834,13 +29834,13 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>148.7388631915159</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>125.6800758778345</v>
@@ -29849,7 +29849,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J33" t="n">
-        <v>51.93274503525222</v>
+        <v>51.93274503525223</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29873,28 +29873,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>134.3633376148752</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>191.4841495043256</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>212.9171572481402</v>
       </c>
       <c r="U33" t="n">
-        <v>187.2968934474317</v>
+        <v>212.9171572481402</v>
       </c>
       <c r="V33" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481402</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>212.9171572481402</v>
       </c>
       <c r="X33" t="n">
-        <v>212.9171572481403</v>
+        <v>39.64185719967628</v>
       </c>
       <c r="Y33" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481402</v>
       </c>
     </row>
     <row r="34">
@@ -29904,10 +29904,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>177.6169206649681</v>
+        <v>212.9171572481402</v>
       </c>
       <c r="C34" t="n">
-        <v>166.4571809719723</v>
+        <v>212.9171572481402</v>
       </c>
       <c r="D34" t="n">
         <v>145.1826502507107</v>
@@ -29916,64 +29916,64 @@
         <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
-        <v>212.9171572481403</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.6959616282545</v>
+        <v>212.9171572481402</v>
       </c>
       <c r="H34" t="n">
-        <v>165.7816030517371</v>
+        <v>212.9171572481402</v>
       </c>
       <c r="I34" t="n">
         <v>164.7082190429235</v>
       </c>
       <c r="J34" t="n">
-        <v>196.3243297908129</v>
+        <v>173.5972420622768</v>
       </c>
       <c r="K34" t="n">
-        <v>66.47076232176846</v>
+        <v>66.47076232176848</v>
       </c>
       <c r="L34" t="n">
-        <v>31.43620997383527</v>
+        <v>31.43620997383528</v>
       </c>
       <c r="M34" t="n">
-        <v>24.4623589180015</v>
+        <v>24.46235891800151</v>
       </c>
       <c r="N34" t="n">
-        <v>15.7835913661001</v>
+        <v>15.78359136610011</v>
       </c>
       <c r="O34" t="n">
         <v>36.79854607717667</v>
       </c>
       <c r="P34" t="n">
-        <v>57.89645227716782</v>
+        <v>57.89645227716783</v>
       </c>
       <c r="Q34" t="n">
-        <v>212.9171572481403</v>
+        <v>126.8139378168763</v>
       </c>
       <c r="R34" t="n">
-        <v>203.2135377342752</v>
+        <v>212.9171572481402</v>
       </c>
       <c r="S34" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481402</v>
       </c>
       <c r="T34" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481402</v>
       </c>
       <c r="U34" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481402</v>
       </c>
       <c r="V34" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481402</v>
       </c>
       <c r="W34" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481402</v>
       </c>
       <c r="X34" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481402</v>
       </c>
       <c r="Y34" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481402</v>
       </c>
     </row>
     <row r="35">
@@ -30004,40 +30004,40 @@
         <v>248.0932339118652</v>
       </c>
       <c r="I35" t="n">
-        <v>248.0932339118652</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="J35" t="n">
         <v>248.0932339118652</v>
       </c>
       <c r="K35" t="n">
-        <v>5.36224194615702</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="L35" t="n">
-        <v>133.1678621964242</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>232.8591469633726</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>248.0932339118652</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>248.0932339118652</v>
+        <v>13.54892393491823</v>
       </c>
       <c r="Q35" t="n">
         <v>248.0932339118652</v>
       </c>
       <c r="R35" t="n">
-        <v>248.0932339118652</v>
+        <v>194.2075003718244</v>
       </c>
       <c r="S35" t="n">
-        <v>248.0932339118652</v>
+        <v>227.2724750164867</v>
       </c>
       <c r="T35" t="n">
-        <v>248.0932339118652</v>
+        <v>222.4189089677869</v>
       </c>
       <c r="U35" t="n">
         <v>248.0932339118652</v>
@@ -30062,22 +30062,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>103.0418317675528</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>148.7388631915159</v>
+        <v>80.97690589396527</v>
       </c>
       <c r="H36" t="n">
         <v>125.6800758778345</v>
@@ -30086,7 +30086,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>51.93274503525223</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,7 +30107,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.136586121265623</v>
       </c>
       <c r="R36" t="n">
         <v>134.3633376148752</v>
@@ -30116,16 +30116,16 @@
         <v>191.4841495043256</v>
       </c>
       <c r="T36" t="n">
-        <v>214.9477822055827</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>237.2276917808945</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
@@ -30162,31 +30162,31 @@
         <v>165.7816030517371</v>
       </c>
       <c r="I37" t="n">
-        <v>164.7082190429235</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="J37" t="n">
         <v>119.8993073508208</v>
       </c>
       <c r="K37" t="n">
-        <v>66.47076232176849</v>
+        <v>66.47076232176848</v>
       </c>
       <c r="L37" t="n">
-        <v>31.43620997383529</v>
+        <v>31.43620997383528</v>
       </c>
       <c r="M37" t="n">
-        <v>24.46235891800152</v>
+        <v>24.46235891800151</v>
       </c>
       <c r="N37" t="n">
-        <v>15.78359136610012</v>
+        <v>15.78359136610011</v>
       </c>
       <c r="O37" t="n">
-        <v>36.79854607717668</v>
+        <v>37.87484504416445</v>
       </c>
       <c r="P37" t="n">
-        <v>57.89645227716784</v>
+        <v>57.89645227716783</v>
       </c>
       <c r="Q37" t="n">
-        <v>211.2752516528057</v>
+        <v>126.8139378168763</v>
       </c>
       <c r="R37" t="n">
         <v>203.2135377342752</v>
@@ -30244,31 +30244,31 @@
         <v>248.0932339118652</v>
       </c>
       <c r="J38" t="n">
+        <v>75.87088762177225</v>
+      </c>
+      <c r="K38" t="n">
         <v>248.0932339118652</v>
       </c>
-      <c r="K38" t="n">
-        <v>178.8669137477039</v>
-      </c>
       <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>245.3274290416892</v>
+      </c>
+      <c r="N38" t="n">
         <v>248.0932339118652</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
       <c r="O38" t="n">
-        <v>248.0932339118652</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>13.54892393491825</v>
+        <v>65.42502139098474</v>
       </c>
       <c r="Q38" t="n">
         <v>248.0932339118652</v>
       </c>
       <c r="R38" t="n">
-        <v>194.2075003718244</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="S38" t="n">
         <v>248.0932339118652</v>
@@ -30302,28 +30302,28 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>134.2695134729838</v>
       </c>
       <c r="G39" t="n">
         <v>148.7388631915159</v>
       </c>
       <c r="H39" t="n">
-        <v>125.6800758778345</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>107.1657389737211</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>51.93274503525224</v>
+        <v>51.93274503525223</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,13 +30344,13 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.136586121265633</v>
+        <v>6.136586121265623</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>7.314748156546216</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T39" t="n">
         <v>214.9477822055827</v>
@@ -30362,7 +30362,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
@@ -30390,13 +30390,13 @@
         <v>141.676141212225</v>
       </c>
       <c r="F40" t="n">
-        <v>138.9268822184467</v>
+        <v>223.388196054376</v>
       </c>
       <c r="G40" t="n">
         <v>168.6959616282545</v>
       </c>
       <c r="H40" t="n">
-        <v>225.8906755126513</v>
+        <v>165.7816030517371</v>
       </c>
       <c r="I40" t="n">
         <v>164.7082190429235</v>
@@ -30405,22 +30405,22 @@
         <v>119.8993073508208</v>
       </c>
       <c r="K40" t="n">
-        <v>66.47076232176849</v>
+        <v>66.47076232176848</v>
       </c>
       <c r="L40" t="n">
-        <v>31.43620997383529</v>
+        <v>31.43620997383528</v>
       </c>
       <c r="M40" t="n">
-        <v>24.46235891800152</v>
+        <v>24.46235891800151</v>
       </c>
       <c r="N40" t="n">
-        <v>15.78359136610012</v>
+        <v>15.78359136610011</v>
       </c>
       <c r="O40" t="n">
-        <v>36.79854607717668</v>
+        <v>36.79854607717667</v>
       </c>
       <c r="P40" t="n">
-        <v>57.89645227716784</v>
+        <v>57.89645227716783</v>
       </c>
       <c r="Q40" t="n">
         <v>126.8139378168763</v>
@@ -30432,7 +30432,7 @@
         <v>235.3541616935673</v>
       </c>
       <c r="T40" t="n">
-        <v>248.0932339118652</v>
+        <v>223.7409925368498</v>
       </c>
       <c r="U40" t="n">
         <v>248.0932339118652</v>
@@ -30481,37 +30481,37 @@
         <v>240.5960845356529</v>
       </c>
       <c r="J41" t="n">
-        <v>75.87088762177225</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="K41" t="n">
-        <v>240.5960845356529</v>
+        <v>201.7467897322417</v>
       </c>
       <c r="L41" t="n">
         <v>240.5960845356529</v>
       </c>
       <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
         <v>240.5960845356529</v>
       </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
       <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
         <v>240.5960845356529</v>
       </c>
-      <c r="P41" t="n">
-        <v>157.3766871975014</v>
-      </c>
       <c r="Q41" t="n">
-        <v>88.55297193870598</v>
+        <v>88.55297193870595</v>
       </c>
       <c r="R41" t="n">
         <v>240.5960845356529</v>
       </c>
       <c r="S41" t="n">
-        <v>227.2724750164867</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="T41" t="n">
-        <v>222.4189089677869</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="U41" t="n">
         <v>240.5960845356529</v>
@@ -30539,7 +30539,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>37.43368979750235</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
         <v>159.1723150765785</v>
@@ -30560,7 +30560,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J42" t="n">
-        <v>51.93274503525224</v>
+        <v>51.93274503525223</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,28 +30581,28 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.136586121265633</v>
+        <v>6.136586121265623</v>
       </c>
       <c r="R42" t="n">
         <v>134.3633376148752</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9477822055827</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2276917808945</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="W42" t="n">
         <v>240.5960845356529</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>87.3236926591056</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>240.5960845356529</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C43" t="n">
         <v>166.4571809719723</v>
@@ -30633,7 +30633,7 @@
         <v>168.6959616282545</v>
       </c>
       <c r="H43" t="n">
-        <v>165.7816030517371</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="I43" t="n">
         <v>164.7082190429235</v>
@@ -30642,25 +30642,25 @@
         <v>119.8993073508208</v>
       </c>
       <c r="K43" t="n">
-        <v>66.47076232176849</v>
+        <v>66.47076232176848</v>
       </c>
       <c r="L43" t="n">
-        <v>31.43620997383529</v>
+        <v>31.43620997383528</v>
       </c>
       <c r="M43" t="n">
-        <v>24.46235891800152</v>
+        <v>24.46235891800151</v>
       </c>
       <c r="N43" t="n">
-        <v>15.78359136610012</v>
+        <v>15.78359136610011</v>
       </c>
       <c r="O43" t="n">
-        <v>36.79854607717668</v>
+        <v>36.79854607717667</v>
       </c>
       <c r="P43" t="n">
-        <v>57.89645227716784</v>
+        <v>87.44658980336922</v>
       </c>
       <c r="Q43" t="n">
-        <v>149.5227638288982</v>
+        <v>126.8139378168763</v>
       </c>
       <c r="R43" t="n">
         <v>203.2135377342752</v>
@@ -30681,7 +30681,7 @@
         <v>240.5960845356529</v>
       </c>
       <c r="X43" t="n">
-        <v>240.5960845356529</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y43" t="n">
         <v>217.1412728141684</v>
@@ -30721,13 +30721,13 @@
         <v>240.5960845356529</v>
       </c>
       <c r="K44" t="n">
-        <v>5.362241946157006</v>
+        <v>25.4911505125312</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="M44" t="n">
-        <v>44.34143518913766</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="N44" t="n">
         <v>240.5960845356529</v>
@@ -30736,19 +30736,19 @@
         <v>240.5960845356529</v>
       </c>
       <c r="P44" t="n">
-        <v>240.5960845356529</v>
+        <v>13.54892393491823</v>
       </c>
       <c r="Q44" t="n">
-        <v>240.5960845356529</v>
+        <v>88.55297193870595</v>
       </c>
       <c r="R44" t="n">
-        <v>240.5960845356529</v>
+        <v>194.2075003718244</v>
       </c>
       <c r="S44" t="n">
-        <v>240.5960845356529</v>
+        <v>227.2724750164867</v>
       </c>
       <c r="T44" t="n">
-        <v>240.5960845356529</v>
+        <v>222.4189089677869</v>
       </c>
       <c r="U44" t="n">
         <v>240.5960845356529</v>
@@ -30773,13 +30773,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
         <v>171.8275718397997</v>
@@ -30797,7 +30797,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J45" t="n">
-        <v>51.93274503525224</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,28 +30818,28 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.136586121265626</v>
+        <v>6.136586121265623</v>
       </c>
       <c r="R45" t="n">
         <v>134.3633376148752</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T45" t="n">
         <v>214.9477822055827</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2276917808945</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>240.5960845356529</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>240.5960845356529</v>
+        <v>39.44904692909438</v>
       </c>
       <c r="X45" t="n">
-        <v>13.81631445968239</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -30864,7 +30864,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
-        <v>138.9268822184467</v>
+        <v>167.4036357358344</v>
       </c>
       <c r="G46" t="n">
         <v>168.6959616282545</v>
@@ -30873,13 +30873,13 @@
         <v>165.7816030517371</v>
       </c>
       <c r="I46" t="n">
-        <v>164.7082190429235</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="J46" t="n">
         <v>119.8993073508208</v>
       </c>
       <c r="K46" t="n">
-        <v>170.8353813318856</v>
+        <v>66.47076232176848</v>
       </c>
       <c r="L46" t="n">
         <v>31.43620997383528</v>
@@ -30891,10 +30891,10 @@
         <v>15.78359136610011</v>
       </c>
       <c r="O46" t="n">
-        <v>36.79854607717668</v>
+        <v>36.79854607717667</v>
       </c>
       <c r="P46" t="n">
-        <v>57.89645227716784</v>
+        <v>57.89645227716783</v>
       </c>
       <c r="Q46" t="n">
         <v>126.8139378168763</v>
@@ -31750,22 +31750,22 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4174495561852893</v>
+        <v>0.4174495561852892</v>
       </c>
       <c r="H11" t="n">
-        <v>4.275205267282595</v>
+        <v>4.275205267282594</v>
       </c>
       <c r="I11" t="n">
         <v>16.09372401483338</v>
       </c>
       <c r="J11" t="n">
-        <v>35.43050926928123</v>
+        <v>35.43050926928122</v>
       </c>
       <c r="K11" t="n">
         <v>53.10114898260453</v>
       </c>
       <c r="L11" t="n">
-        <v>65.87667083771009</v>
+        <v>65.87667083771008</v>
       </c>
       <c r="M11" t="n">
         <v>73.30048938252023</v>
@@ -31780,16 +31780,16 @@
         <v>60.02976799138987</v>
       </c>
       <c r="Q11" t="n">
-        <v>45.07985576050419</v>
+        <v>45.07985576050418</v>
       </c>
       <c r="R11" t="n">
         <v>26.2226156837242</v>
       </c>
       <c r="S11" t="n">
-        <v>9.512631761572289</v>
+        <v>9.512631761572287</v>
       </c>
       <c r="T11" t="n">
-        <v>1.827385432201105</v>
+        <v>1.827385432201104</v>
       </c>
       <c r="U11" t="n">
         <v>0.03339596449482313</v>
@@ -31832,7 +31832,7 @@
         <v>0.2233552035759311</v>
       </c>
       <c r="H12" t="n">
-        <v>2.157141045062283</v>
+        <v>2.157141045062282</v>
       </c>
       <c r="I12" t="n">
         <v>7.690080473995875</v>
@@ -31844,31 +31844,31 @@
         <v>36.06696723708358</v>
       </c>
       <c r="L12" t="n">
-        <v>48.49648839046698</v>
+        <v>48.49648839046697</v>
       </c>
       <c r="M12" t="n">
         <v>56.59311452009447</v>
       </c>
       <c r="N12" t="n">
-        <v>58.09096586337343</v>
+        <v>58.09096586337341</v>
       </c>
       <c r="O12" t="n">
-        <v>53.141884773612</v>
+        <v>53.14188477361199</v>
       </c>
       <c r="P12" t="n">
-        <v>42.65104760214426</v>
+        <v>42.65104760214425</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.51109581085044</v>
+        <v>28.51109581085043</v>
       </c>
       <c r="R12" t="n">
         <v>13.86761518342492</v>
       </c>
       <c r="S12" t="n">
-        <v>4.148724943614332</v>
+        <v>4.148724943614331</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9002782109047396</v>
+        <v>0.9002782109047395</v>
       </c>
       <c r="U12" t="n">
         <v>0.01469442128789021</v>
@@ -31908,7 +31908,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1872534996904916</v>
+        <v>0.1872534996904915</v>
       </c>
       <c r="H13" t="n">
         <v>1.664853842702735</v>
@@ -31923,7 +31923,7 @@
         <v>21.75545205494983</v>
       </c>
       <c r="L13" t="n">
-        <v>27.83948849034818</v>
+        <v>27.83948849034817</v>
       </c>
       <c r="M13" t="n">
         <v>29.35283722875587</v>
@@ -31935,22 +31935,22 @@
         <v>26.46743102897967</v>
       </c>
       <c r="P13" t="n">
-        <v>22.64745963529363</v>
+        <v>22.64745963529362</v>
       </c>
       <c r="Q13" t="n">
         <v>15.67992714226471</v>
       </c>
       <c r="R13" t="n">
-        <v>8.419598267901556</v>
+        <v>8.419598267901554</v>
       </c>
       <c r="S13" t="n">
-        <v>3.263317808242475</v>
+        <v>3.263317808242474</v>
       </c>
       <c r="T13" t="n">
-        <v>0.800083135041191</v>
+        <v>0.8000831350411909</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01021382725584501</v>
+        <v>0.010213827255845</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,22 +31987,22 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4174495561852893</v>
+        <v>0.4174495561852892</v>
       </c>
       <c r="H14" t="n">
-        <v>4.275205267282595</v>
+        <v>4.275205267282594</v>
       </c>
       <c r="I14" t="n">
         <v>16.09372401483338</v>
       </c>
       <c r="J14" t="n">
-        <v>35.43050926928123</v>
+        <v>35.43050926928122</v>
       </c>
       <c r="K14" t="n">
         <v>53.10114898260453</v>
       </c>
       <c r="L14" t="n">
-        <v>65.87667083771009</v>
+        <v>65.87667083771008</v>
       </c>
       <c r="M14" t="n">
         <v>73.30048938252023</v>
@@ -32017,16 +32017,16 @@
         <v>60.02976799138987</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.07985576050419</v>
+        <v>45.07985576050418</v>
       </c>
       <c r="R14" t="n">
         <v>26.2226156837242</v>
       </c>
       <c r="S14" t="n">
-        <v>9.512631761572289</v>
+        <v>9.512631761572287</v>
       </c>
       <c r="T14" t="n">
-        <v>1.827385432201105</v>
+        <v>1.827385432201104</v>
       </c>
       <c r="U14" t="n">
         <v>0.03339596449482313</v>
@@ -32069,7 +32069,7 @@
         <v>0.2233552035759311</v>
       </c>
       <c r="H15" t="n">
-        <v>2.157141045062283</v>
+        <v>2.157141045062282</v>
       </c>
       <c r="I15" t="n">
         <v>7.690080473995875</v>
@@ -32081,31 +32081,31 @@
         <v>36.06696723708358</v>
       </c>
       <c r="L15" t="n">
-        <v>48.49648839046698</v>
+        <v>48.49648839046697</v>
       </c>
       <c r="M15" t="n">
         <v>56.59311452009447</v>
       </c>
       <c r="N15" t="n">
-        <v>58.09096586337343</v>
+        <v>58.09096586337341</v>
       </c>
       <c r="O15" t="n">
-        <v>53.141884773612</v>
+        <v>53.14188477361199</v>
       </c>
       <c r="P15" t="n">
-        <v>42.65104760214426</v>
+        <v>42.65104760214425</v>
       </c>
       <c r="Q15" t="n">
-        <v>28.51109581085044</v>
+        <v>28.51109581085043</v>
       </c>
       <c r="R15" t="n">
         <v>13.86761518342492</v>
       </c>
       <c r="S15" t="n">
-        <v>4.148724943614332</v>
+        <v>4.148724943614331</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9002782109047396</v>
+        <v>0.9002782109047395</v>
       </c>
       <c r="U15" t="n">
         <v>0.01469442128789021</v>
@@ -32145,7 +32145,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1872534996904916</v>
+        <v>0.1872534996904915</v>
       </c>
       <c r="H16" t="n">
         <v>1.664853842702735</v>
@@ -32160,7 +32160,7 @@
         <v>21.75545205494983</v>
       </c>
       <c r="L16" t="n">
-        <v>27.83948849034818</v>
+        <v>27.83948849034817</v>
       </c>
       <c r="M16" t="n">
         <v>29.35283722875587</v>
@@ -32172,22 +32172,22 @@
         <v>26.46743102897967</v>
       </c>
       <c r="P16" t="n">
-        <v>22.64745963529363</v>
+        <v>22.64745963529362</v>
       </c>
       <c r="Q16" t="n">
         <v>15.67992714226471</v>
       </c>
       <c r="R16" t="n">
-        <v>8.419598267901556</v>
+        <v>8.419598267901554</v>
       </c>
       <c r="S16" t="n">
-        <v>3.263317808242475</v>
+        <v>3.263317808242474</v>
       </c>
       <c r="T16" t="n">
-        <v>0.800083135041191</v>
+        <v>0.8000831350411909</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01021382725584501</v>
+        <v>0.010213827255845</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,22 +32224,22 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4174495561852893</v>
+        <v>0.4174495561852892</v>
       </c>
       <c r="H17" t="n">
-        <v>4.275205267282595</v>
+        <v>4.275205267282594</v>
       </c>
       <c r="I17" t="n">
         <v>16.09372401483338</v>
       </c>
       <c r="J17" t="n">
-        <v>35.43050926928123</v>
+        <v>35.43050926928122</v>
       </c>
       <c r="K17" t="n">
         <v>53.10114898260453</v>
       </c>
       <c r="L17" t="n">
-        <v>65.87667083771009</v>
+        <v>65.87667083771008</v>
       </c>
       <c r="M17" t="n">
         <v>73.30048938252023</v>
@@ -32254,16 +32254,16 @@
         <v>60.02976799138987</v>
       </c>
       <c r="Q17" t="n">
-        <v>45.07985576050419</v>
+        <v>45.07985576050418</v>
       </c>
       <c r="R17" t="n">
         <v>26.2226156837242</v>
       </c>
       <c r="S17" t="n">
-        <v>9.512631761572289</v>
+        <v>9.512631761572287</v>
       </c>
       <c r="T17" t="n">
-        <v>1.827385432201105</v>
+        <v>1.827385432201104</v>
       </c>
       <c r="U17" t="n">
         <v>0.03339596449482313</v>
@@ -32306,7 +32306,7 @@
         <v>0.2233552035759311</v>
       </c>
       <c r="H18" t="n">
-        <v>2.157141045062283</v>
+        <v>2.157141045062282</v>
       </c>
       <c r="I18" t="n">
         <v>7.690080473995875</v>
@@ -32318,31 +32318,31 @@
         <v>36.06696723708358</v>
       </c>
       <c r="L18" t="n">
-        <v>48.49648839046698</v>
+        <v>48.49648839046697</v>
       </c>
       <c r="M18" t="n">
         <v>56.59311452009447</v>
       </c>
       <c r="N18" t="n">
-        <v>58.09096586337343</v>
+        <v>58.09096586337341</v>
       </c>
       <c r="O18" t="n">
-        <v>53.141884773612</v>
+        <v>53.14188477361199</v>
       </c>
       <c r="P18" t="n">
-        <v>42.65104760214426</v>
+        <v>42.65104760214425</v>
       </c>
       <c r="Q18" t="n">
-        <v>28.51109581085044</v>
+        <v>28.51109581085043</v>
       </c>
       <c r="R18" t="n">
         <v>13.86761518342492</v>
       </c>
       <c r="S18" t="n">
-        <v>4.148724943614332</v>
+        <v>4.148724943614331</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9002782109047396</v>
+        <v>0.9002782109047395</v>
       </c>
       <c r="U18" t="n">
         <v>0.01469442128789021</v>
@@ -32382,7 +32382,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1872534996904916</v>
+        <v>0.1872534996904915</v>
       </c>
       <c r="H19" t="n">
         <v>1.664853842702735</v>
@@ -32397,7 +32397,7 @@
         <v>21.75545205494983</v>
       </c>
       <c r="L19" t="n">
-        <v>27.83948849034818</v>
+        <v>27.83948849034817</v>
       </c>
       <c r="M19" t="n">
         <v>29.35283722875587</v>
@@ -32409,22 +32409,22 @@
         <v>26.46743102897967</v>
       </c>
       <c r="P19" t="n">
-        <v>22.64745963529363</v>
+        <v>22.64745963529362</v>
       </c>
       <c r="Q19" t="n">
         <v>15.67992714226471</v>
       </c>
       <c r="R19" t="n">
-        <v>8.419598267901556</v>
+        <v>8.419598267901554</v>
       </c>
       <c r="S19" t="n">
-        <v>3.263317808242475</v>
+        <v>3.263317808242474</v>
       </c>
       <c r="T19" t="n">
-        <v>0.800083135041191</v>
+        <v>0.8000831350411909</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01021382725584501</v>
+        <v>0.010213827255845</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,22 +32461,22 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4174495561852893</v>
+        <v>0.4174495561852892</v>
       </c>
       <c r="H20" t="n">
-        <v>4.275205267282595</v>
+        <v>4.275205267282594</v>
       </c>
       <c r="I20" t="n">
         <v>16.09372401483338</v>
       </c>
       <c r="J20" t="n">
-        <v>35.43050926928123</v>
+        <v>35.43050926928122</v>
       </c>
       <c r="K20" t="n">
         <v>53.10114898260453</v>
       </c>
       <c r="L20" t="n">
-        <v>65.87667083771009</v>
+        <v>65.87667083771008</v>
       </c>
       <c r="M20" t="n">
         <v>73.30048938252023</v>
@@ -32491,16 +32491,16 @@
         <v>60.02976799138987</v>
       </c>
       <c r="Q20" t="n">
-        <v>45.07985576050419</v>
+        <v>45.07985576050418</v>
       </c>
       <c r="R20" t="n">
         <v>26.2226156837242</v>
       </c>
       <c r="S20" t="n">
-        <v>9.512631761572289</v>
+        <v>9.512631761572287</v>
       </c>
       <c r="T20" t="n">
-        <v>1.827385432201105</v>
+        <v>1.827385432201104</v>
       </c>
       <c r="U20" t="n">
         <v>0.03339596449482313</v>
@@ -32543,7 +32543,7 @@
         <v>0.2233552035759311</v>
       </c>
       <c r="H21" t="n">
-        <v>2.157141045062283</v>
+        <v>2.157141045062282</v>
       </c>
       <c r="I21" t="n">
         <v>7.690080473995875</v>
@@ -32555,31 +32555,31 @@
         <v>36.06696723708358</v>
       </c>
       <c r="L21" t="n">
-        <v>48.49648839046698</v>
+        <v>48.49648839046697</v>
       </c>
       <c r="M21" t="n">
         <v>56.59311452009447</v>
       </c>
       <c r="N21" t="n">
-        <v>58.09096586337343</v>
+        <v>58.09096586337341</v>
       </c>
       <c r="O21" t="n">
-        <v>53.141884773612</v>
+        <v>53.14188477361199</v>
       </c>
       <c r="P21" t="n">
-        <v>42.65104760214426</v>
+        <v>42.65104760214425</v>
       </c>
       <c r="Q21" t="n">
-        <v>28.51109581085044</v>
+        <v>28.51109581085043</v>
       </c>
       <c r="R21" t="n">
         <v>13.86761518342492</v>
       </c>
       <c r="S21" t="n">
-        <v>4.148724943614332</v>
+        <v>4.148724943614331</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9002782109047396</v>
+        <v>0.9002782109047395</v>
       </c>
       <c r="U21" t="n">
         <v>0.01469442128789021</v>
@@ -32619,7 +32619,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1872534996904916</v>
+        <v>0.1872534996904915</v>
       </c>
       <c r="H22" t="n">
         <v>1.664853842702735</v>
@@ -32634,7 +32634,7 @@
         <v>21.75545205494983</v>
       </c>
       <c r="L22" t="n">
-        <v>27.83948849034818</v>
+        <v>27.83948849034817</v>
       </c>
       <c r="M22" t="n">
         <v>29.35283722875587</v>
@@ -32646,22 +32646,22 @@
         <v>26.46743102897967</v>
       </c>
       <c r="P22" t="n">
-        <v>22.64745963529363</v>
+        <v>22.64745963529362</v>
       </c>
       <c r="Q22" t="n">
         <v>15.67992714226471</v>
       </c>
       <c r="R22" t="n">
-        <v>8.419598267901556</v>
+        <v>8.419598267901554</v>
       </c>
       <c r="S22" t="n">
-        <v>3.263317808242475</v>
+        <v>3.263317808242474</v>
       </c>
       <c r="T22" t="n">
-        <v>0.800083135041191</v>
+        <v>0.8000831350411909</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01021382725584501</v>
+        <v>0.010213827255845</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,22 +32698,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4174495561852893</v>
+        <v>0.4174495561852892</v>
       </c>
       <c r="H23" t="n">
-        <v>4.275205267282595</v>
+        <v>4.275205267282594</v>
       </c>
       <c r="I23" t="n">
         <v>16.09372401483338</v>
       </c>
       <c r="J23" t="n">
-        <v>35.43050926928123</v>
+        <v>35.43050926928122</v>
       </c>
       <c r="K23" t="n">
         <v>53.10114898260453</v>
       </c>
       <c r="L23" t="n">
-        <v>65.87667083771009</v>
+        <v>65.87667083771008</v>
       </c>
       <c r="M23" t="n">
         <v>73.30048938252023</v>
@@ -32728,16 +32728,16 @@
         <v>60.02976799138987</v>
       </c>
       <c r="Q23" t="n">
-        <v>45.07985576050419</v>
+        <v>45.07985576050418</v>
       </c>
       <c r="R23" t="n">
         <v>26.2226156837242</v>
       </c>
       <c r="S23" t="n">
-        <v>9.512631761572289</v>
+        <v>9.512631761572287</v>
       </c>
       <c r="T23" t="n">
-        <v>1.827385432201105</v>
+        <v>1.827385432201104</v>
       </c>
       <c r="U23" t="n">
         <v>0.03339596449482313</v>
@@ -32780,7 +32780,7 @@
         <v>0.2233552035759311</v>
       </c>
       <c r="H24" t="n">
-        <v>2.157141045062283</v>
+        <v>2.157141045062282</v>
       </c>
       <c r="I24" t="n">
         <v>7.690080473995875</v>
@@ -32792,31 +32792,31 @@
         <v>36.06696723708358</v>
       </c>
       <c r="L24" t="n">
-        <v>48.49648839046698</v>
+        <v>48.49648839046697</v>
       </c>
       <c r="M24" t="n">
         <v>56.59311452009447</v>
       </c>
       <c r="N24" t="n">
-        <v>58.09096586337343</v>
+        <v>58.09096586337341</v>
       </c>
       <c r="O24" t="n">
-        <v>53.141884773612</v>
+        <v>53.14188477361199</v>
       </c>
       <c r="P24" t="n">
-        <v>42.65104760214426</v>
+        <v>42.65104760214425</v>
       </c>
       <c r="Q24" t="n">
-        <v>28.51109581085044</v>
+        <v>28.51109581085043</v>
       </c>
       <c r="R24" t="n">
         <v>13.86761518342492</v>
       </c>
       <c r="S24" t="n">
-        <v>4.148724943614332</v>
+        <v>4.148724943614331</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9002782109047396</v>
+        <v>0.9002782109047395</v>
       </c>
       <c r="U24" t="n">
         <v>0.01469442128789021</v>
@@ -32856,7 +32856,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1872534996904916</v>
+        <v>0.1872534996904915</v>
       </c>
       <c r="H25" t="n">
         <v>1.664853842702735</v>
@@ -32871,7 +32871,7 @@
         <v>21.75545205494983</v>
       </c>
       <c r="L25" t="n">
-        <v>27.83948849034818</v>
+        <v>27.83948849034817</v>
       </c>
       <c r="M25" t="n">
         <v>29.35283722875587</v>
@@ -32883,22 +32883,22 @@
         <v>26.46743102897967</v>
       </c>
       <c r="P25" t="n">
-        <v>22.64745963529363</v>
+        <v>22.64745963529362</v>
       </c>
       <c r="Q25" t="n">
         <v>15.67992714226471</v>
       </c>
       <c r="R25" t="n">
-        <v>8.419598267901556</v>
+        <v>8.419598267901554</v>
       </c>
       <c r="S25" t="n">
-        <v>3.263317808242475</v>
+        <v>3.263317808242474</v>
       </c>
       <c r="T25" t="n">
-        <v>0.800083135041191</v>
+        <v>0.8000831350411909</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01021382725584501</v>
+        <v>0.010213827255845</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,22 +32935,22 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4174495561852893</v>
+        <v>0.4174495561852892</v>
       </c>
       <c r="H26" t="n">
-        <v>4.275205267282595</v>
+        <v>4.275205267282594</v>
       </c>
       <c r="I26" t="n">
         <v>16.09372401483338</v>
       </c>
       <c r="J26" t="n">
-        <v>35.43050926928123</v>
+        <v>35.43050926928122</v>
       </c>
       <c r="K26" t="n">
         <v>53.10114898260453</v>
       </c>
       <c r="L26" t="n">
-        <v>65.87667083771009</v>
+        <v>65.87667083771008</v>
       </c>
       <c r="M26" t="n">
         <v>73.30048938252023</v>
@@ -32965,16 +32965,16 @@
         <v>60.02976799138987</v>
       </c>
       <c r="Q26" t="n">
-        <v>45.07985576050419</v>
+        <v>45.07985576050418</v>
       </c>
       <c r="R26" t="n">
         <v>26.2226156837242</v>
       </c>
       <c r="S26" t="n">
-        <v>9.512631761572289</v>
+        <v>9.512631761572287</v>
       </c>
       <c r="T26" t="n">
-        <v>1.827385432201105</v>
+        <v>1.827385432201104</v>
       </c>
       <c r="U26" t="n">
         <v>0.03339596449482313</v>
@@ -33017,7 +33017,7 @@
         <v>0.2233552035759311</v>
       </c>
       <c r="H27" t="n">
-        <v>2.157141045062283</v>
+        <v>2.157141045062282</v>
       </c>
       <c r="I27" t="n">
         <v>7.690080473995875</v>
@@ -33029,31 +33029,31 @@
         <v>36.06696723708358</v>
       </c>
       <c r="L27" t="n">
-        <v>48.49648839046698</v>
+        <v>48.49648839046697</v>
       </c>
       <c r="M27" t="n">
         <v>56.59311452009447</v>
       </c>
       <c r="N27" t="n">
-        <v>58.09096586337343</v>
+        <v>58.09096586337341</v>
       </c>
       <c r="O27" t="n">
-        <v>53.141884773612</v>
+        <v>53.14188477361199</v>
       </c>
       <c r="P27" t="n">
-        <v>42.65104760214426</v>
+        <v>42.65104760214425</v>
       </c>
       <c r="Q27" t="n">
-        <v>28.51109581085044</v>
+        <v>28.51109581085043</v>
       </c>
       <c r="R27" t="n">
         <v>13.86761518342492</v>
       </c>
       <c r="S27" t="n">
-        <v>4.148724943614332</v>
+        <v>4.148724943614331</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9002782109047396</v>
+        <v>0.9002782109047395</v>
       </c>
       <c r="U27" t="n">
         <v>0.01469442128789021</v>
@@ -33093,7 +33093,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1872534996904916</v>
+        <v>0.1872534996904915</v>
       </c>
       <c r="H28" t="n">
         <v>1.664853842702735</v>
@@ -33108,7 +33108,7 @@
         <v>21.75545205494983</v>
       </c>
       <c r="L28" t="n">
-        <v>27.83948849034818</v>
+        <v>27.83948849034817</v>
       </c>
       <c r="M28" t="n">
         <v>29.35283722875587</v>
@@ -33120,22 +33120,22 @@
         <v>26.46743102897967</v>
       </c>
       <c r="P28" t="n">
-        <v>22.64745963529363</v>
+        <v>22.64745963529362</v>
       </c>
       <c r="Q28" t="n">
         <v>15.67992714226471</v>
       </c>
       <c r="R28" t="n">
-        <v>8.419598267901556</v>
+        <v>8.419598267901554</v>
       </c>
       <c r="S28" t="n">
-        <v>3.263317808242475</v>
+        <v>3.263317808242474</v>
       </c>
       <c r="T28" t="n">
-        <v>0.800083135041191</v>
+        <v>0.8000831350411909</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01021382725584501</v>
+        <v>0.010213827255845</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,22 +33172,22 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4174495561852893</v>
+        <v>0.4174495561852892</v>
       </c>
       <c r="H29" t="n">
-        <v>4.275205267282595</v>
+        <v>4.275205267282594</v>
       </c>
       <c r="I29" t="n">
         <v>16.09372401483338</v>
       </c>
       <c r="J29" t="n">
-        <v>35.43050926928123</v>
+        <v>35.43050926928122</v>
       </c>
       <c r="K29" t="n">
         <v>53.10114898260453</v>
       </c>
       <c r="L29" t="n">
-        <v>65.87667083771009</v>
+        <v>65.87667083771008</v>
       </c>
       <c r="M29" t="n">
         <v>73.30048938252023</v>
@@ -33202,16 +33202,16 @@
         <v>60.02976799138987</v>
       </c>
       <c r="Q29" t="n">
-        <v>45.07985576050419</v>
+        <v>45.07985576050418</v>
       </c>
       <c r="R29" t="n">
         <v>26.2226156837242</v>
       </c>
       <c r="S29" t="n">
-        <v>9.512631761572289</v>
+        <v>9.512631761572287</v>
       </c>
       <c r="T29" t="n">
-        <v>1.827385432201105</v>
+        <v>1.827385432201104</v>
       </c>
       <c r="U29" t="n">
         <v>0.03339596449482313</v>
@@ -33254,7 +33254,7 @@
         <v>0.2233552035759311</v>
       </c>
       <c r="H30" t="n">
-        <v>2.157141045062283</v>
+        <v>2.157141045062282</v>
       </c>
       <c r="I30" t="n">
         <v>7.690080473995875</v>
@@ -33266,31 +33266,31 @@
         <v>36.06696723708358</v>
       </c>
       <c r="L30" t="n">
-        <v>48.49648839046698</v>
+        <v>48.49648839046697</v>
       </c>
       <c r="M30" t="n">
         <v>56.59311452009447</v>
       </c>
       <c r="N30" t="n">
-        <v>58.09096586337343</v>
+        <v>58.09096586337341</v>
       </c>
       <c r="O30" t="n">
-        <v>53.141884773612</v>
+        <v>53.14188477361199</v>
       </c>
       <c r="P30" t="n">
-        <v>42.65104760214426</v>
+        <v>42.65104760214425</v>
       </c>
       <c r="Q30" t="n">
-        <v>28.51109581085044</v>
+        <v>28.51109581085043</v>
       </c>
       <c r="R30" t="n">
         <v>13.86761518342492</v>
       </c>
       <c r="S30" t="n">
-        <v>4.148724943614332</v>
+        <v>4.148724943614331</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9002782109047396</v>
+        <v>0.9002782109047395</v>
       </c>
       <c r="U30" t="n">
         <v>0.01469442128789021</v>
@@ -33330,7 +33330,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1872534996904916</v>
+        <v>0.1872534996904915</v>
       </c>
       <c r="H31" t="n">
         <v>1.664853842702735</v>
@@ -33345,7 +33345,7 @@
         <v>21.75545205494983</v>
       </c>
       <c r="L31" t="n">
-        <v>27.83948849034818</v>
+        <v>27.83948849034817</v>
       </c>
       <c r="M31" t="n">
         <v>29.35283722875587</v>
@@ -33357,22 +33357,22 @@
         <v>26.46743102897967</v>
       </c>
       <c r="P31" t="n">
-        <v>22.64745963529363</v>
+        <v>22.64745963529362</v>
       </c>
       <c r="Q31" t="n">
         <v>15.67992714226471</v>
       </c>
       <c r="R31" t="n">
-        <v>8.419598267901556</v>
+        <v>8.419598267901554</v>
       </c>
       <c r="S31" t="n">
-        <v>3.263317808242475</v>
+        <v>3.263317808242474</v>
       </c>
       <c r="T31" t="n">
-        <v>0.800083135041191</v>
+        <v>0.8000831350411909</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01021382725584501</v>
+        <v>0.010213827255845</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,22 +33409,22 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4174495561852893</v>
+        <v>0.4174495561852892</v>
       </c>
       <c r="H32" t="n">
-        <v>4.275205267282595</v>
+        <v>4.275205267282594</v>
       </c>
       <c r="I32" t="n">
         <v>16.09372401483338</v>
       </c>
       <c r="J32" t="n">
-        <v>35.43050926928123</v>
+        <v>35.43050926928122</v>
       </c>
       <c r="K32" t="n">
         <v>53.10114898260453</v>
       </c>
       <c r="L32" t="n">
-        <v>65.87667083771009</v>
+        <v>65.87667083771008</v>
       </c>
       <c r="M32" t="n">
         <v>73.30048938252023</v>
@@ -33439,16 +33439,16 @@
         <v>60.02976799138987</v>
       </c>
       <c r="Q32" t="n">
-        <v>45.07985576050419</v>
+        <v>45.07985576050418</v>
       </c>
       <c r="R32" t="n">
         <v>26.2226156837242</v>
       </c>
       <c r="S32" t="n">
-        <v>9.512631761572289</v>
+        <v>9.512631761572287</v>
       </c>
       <c r="T32" t="n">
-        <v>1.827385432201105</v>
+        <v>1.827385432201104</v>
       </c>
       <c r="U32" t="n">
         <v>0.03339596449482313</v>
@@ -33491,7 +33491,7 @@
         <v>0.2233552035759311</v>
       </c>
       <c r="H33" t="n">
-        <v>2.157141045062283</v>
+        <v>2.157141045062282</v>
       </c>
       <c r="I33" t="n">
         <v>7.690080473995875</v>
@@ -33503,31 +33503,31 @@
         <v>36.06696723708358</v>
       </c>
       <c r="L33" t="n">
-        <v>48.49648839046698</v>
+        <v>48.49648839046697</v>
       </c>
       <c r="M33" t="n">
         <v>56.59311452009447</v>
       </c>
       <c r="N33" t="n">
-        <v>58.09096586337343</v>
+        <v>58.09096586337341</v>
       </c>
       <c r="O33" t="n">
-        <v>53.141884773612</v>
+        <v>53.14188477361199</v>
       </c>
       <c r="P33" t="n">
-        <v>42.65104760214426</v>
+        <v>42.65104760214425</v>
       </c>
       <c r="Q33" t="n">
-        <v>28.51109581085044</v>
+        <v>28.51109581085043</v>
       </c>
       <c r="R33" t="n">
         <v>13.86761518342492</v>
       </c>
       <c r="S33" t="n">
-        <v>4.148724943614332</v>
+        <v>4.148724943614331</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9002782109047396</v>
+        <v>0.9002782109047395</v>
       </c>
       <c r="U33" t="n">
         <v>0.01469442128789021</v>
@@ -33567,7 +33567,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1872534996904916</v>
+        <v>0.1872534996904915</v>
       </c>
       <c r="H34" t="n">
         <v>1.664853842702735</v>
@@ -33582,7 +33582,7 @@
         <v>21.75545205494983</v>
       </c>
       <c r="L34" t="n">
-        <v>27.83948849034818</v>
+        <v>27.83948849034817</v>
       </c>
       <c r="M34" t="n">
         <v>29.35283722875587</v>
@@ -33594,22 +33594,22 @@
         <v>26.46743102897967</v>
       </c>
       <c r="P34" t="n">
-        <v>22.64745963529363</v>
+        <v>22.64745963529362</v>
       </c>
       <c r="Q34" t="n">
         <v>15.67992714226471</v>
       </c>
       <c r="R34" t="n">
-        <v>8.419598267901556</v>
+        <v>8.419598267901554</v>
       </c>
       <c r="S34" t="n">
-        <v>3.263317808242475</v>
+        <v>3.263317808242474</v>
       </c>
       <c r="T34" t="n">
-        <v>0.800083135041191</v>
+        <v>0.8000831350411909</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01021382725584501</v>
+        <v>0.010213827255845</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4174495561852891</v>
+        <v>0.4174495561852892</v>
       </c>
       <c r="H35" t="n">
-        <v>4.275205267282592</v>
+        <v>4.275205267282594</v>
       </c>
       <c r="I35" t="n">
-        <v>16.09372401483337</v>
+        <v>16.09372401483338</v>
       </c>
       <c r="J35" t="n">
-        <v>35.43050926928121</v>
+        <v>35.43050926928122</v>
       </c>
       <c r="K35" t="n">
-        <v>53.10114898260451</v>
+        <v>53.10114898260453</v>
       </c>
       <c r="L35" t="n">
-        <v>65.87667083771005</v>
+        <v>65.87667083771008</v>
       </c>
       <c r="M35" t="n">
-        <v>73.30048938252018</v>
+        <v>73.30048938252023</v>
       </c>
       <c r="N35" t="n">
-        <v>74.48656793403165</v>
+        <v>74.48656793403168</v>
       </c>
       <c r="O35" t="n">
-        <v>70.33555390971418</v>
+        <v>70.33555390971421</v>
       </c>
       <c r="P35" t="n">
-        <v>60.02976799138985</v>
+        <v>60.02976799138987</v>
       </c>
       <c r="Q35" t="n">
-        <v>45.07985576050417</v>
+        <v>45.07985576050418</v>
       </c>
       <c r="R35" t="n">
-        <v>26.22261568372419</v>
+        <v>26.2226156837242</v>
       </c>
       <c r="S35" t="n">
-        <v>9.512631761572283</v>
+        <v>9.512631761572287</v>
       </c>
       <c r="T35" t="n">
         <v>1.827385432201104</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03339596449482312</v>
+        <v>0.03339596449482313</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.223355203575931</v>
+        <v>0.2233552035759311</v>
       </c>
       <c r="H36" t="n">
-        <v>2.157141045062281</v>
+        <v>2.157141045062282</v>
       </c>
       <c r="I36" t="n">
-        <v>7.690080473995871</v>
+        <v>7.690080473995875</v>
       </c>
       <c r="J36" t="n">
-        <v>21.10216859749619</v>
+        <v>21.1021685974962</v>
       </c>
       <c r="K36" t="n">
-        <v>36.06696723708356</v>
+        <v>36.06696723708358</v>
       </c>
       <c r="L36" t="n">
-        <v>48.49648839046696</v>
+        <v>48.49648839046697</v>
       </c>
       <c r="M36" t="n">
-        <v>56.59311452009444</v>
+        <v>56.59311452009447</v>
       </c>
       <c r="N36" t="n">
-        <v>58.09096586337339</v>
+        <v>58.09096586337341</v>
       </c>
       <c r="O36" t="n">
-        <v>53.14188477361197</v>
+        <v>53.14188477361199</v>
       </c>
       <c r="P36" t="n">
-        <v>42.65104760214423</v>
+        <v>42.65104760214425</v>
       </c>
       <c r="Q36" t="n">
-        <v>28.51109581085042</v>
+        <v>28.51109581085043</v>
       </c>
       <c r="R36" t="n">
         <v>13.86761518342492</v>
       </c>
       <c r="S36" t="n">
-        <v>4.148724943614329</v>
+        <v>4.148724943614331</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9002782109047391</v>
+        <v>0.9002782109047395</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0146944212878902</v>
+        <v>0.01469442128789021</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,43 +33807,43 @@
         <v>0.1872534996904915</v>
       </c>
       <c r="H37" t="n">
-        <v>1.664853842702734</v>
+        <v>1.664853842702735</v>
       </c>
       <c r="I37" t="n">
-        <v>5.631223427055872</v>
+        <v>5.631223427055875</v>
       </c>
       <c r="J37" t="n">
-        <v>13.23882242811774</v>
+        <v>13.23882242811775</v>
       </c>
       <c r="K37" t="n">
-        <v>21.75545205494982</v>
+        <v>21.75545205494983</v>
       </c>
       <c r="L37" t="n">
-        <v>27.83948849034816</v>
+        <v>27.83948849034817</v>
       </c>
       <c r="M37" t="n">
-        <v>29.35283722875585</v>
+        <v>29.35283722875587</v>
       </c>
       <c r="N37" t="n">
-        <v>28.65489236627313</v>
+        <v>28.65489236627315</v>
       </c>
       <c r="O37" t="n">
-        <v>26.46743102897966</v>
+        <v>26.46743102897967</v>
       </c>
       <c r="P37" t="n">
-        <v>22.64745963529361</v>
+        <v>22.64745963529362</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.6799271422647</v>
+        <v>15.67992714226471</v>
       </c>
       <c r="R37" t="n">
-        <v>8.41959826790155</v>
+        <v>8.419598267901554</v>
       </c>
       <c r="S37" t="n">
-        <v>3.263317808242473</v>
+        <v>3.263317808242474</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8000831350411906</v>
+        <v>0.8000831350411909</v>
       </c>
       <c r="U37" t="n">
         <v>0.010213827255845</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4174495561852891</v>
+        <v>0.4174495561852892</v>
       </c>
       <c r="H38" t="n">
-        <v>4.275205267282592</v>
+        <v>4.275205267282594</v>
       </c>
       <c r="I38" t="n">
-        <v>16.09372401483337</v>
+        <v>16.09372401483338</v>
       </c>
       <c r="J38" t="n">
-        <v>35.43050926928121</v>
+        <v>35.43050926928122</v>
       </c>
       <c r="K38" t="n">
-        <v>53.10114898260451</v>
+        <v>53.10114898260453</v>
       </c>
       <c r="L38" t="n">
-        <v>65.87667083771005</v>
+        <v>65.87667083771008</v>
       </c>
       <c r="M38" t="n">
-        <v>73.30048938252018</v>
+        <v>73.30048938252023</v>
       </c>
       <c r="N38" t="n">
-        <v>74.48656793403165</v>
+        <v>74.48656793403168</v>
       </c>
       <c r="O38" t="n">
-        <v>70.33555390971418</v>
+        <v>70.33555390971421</v>
       </c>
       <c r="P38" t="n">
-        <v>60.02976799138985</v>
+        <v>60.02976799138987</v>
       </c>
       <c r="Q38" t="n">
-        <v>45.07985576050417</v>
+        <v>45.07985576050418</v>
       </c>
       <c r="R38" t="n">
-        <v>26.22261568372419</v>
+        <v>26.2226156837242</v>
       </c>
       <c r="S38" t="n">
-        <v>9.512631761572283</v>
+        <v>9.512631761572287</v>
       </c>
       <c r="T38" t="n">
         <v>1.827385432201104</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03339596449482312</v>
+        <v>0.03339596449482313</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.223355203575931</v>
+        <v>0.2233552035759311</v>
       </c>
       <c r="H39" t="n">
-        <v>2.157141045062281</v>
+        <v>2.157141045062282</v>
       </c>
       <c r="I39" t="n">
-        <v>7.690080473995871</v>
+        <v>7.690080473995875</v>
       </c>
       <c r="J39" t="n">
-        <v>21.10216859749619</v>
+        <v>21.1021685974962</v>
       </c>
       <c r="K39" t="n">
-        <v>36.06696723708356</v>
+        <v>36.06696723708358</v>
       </c>
       <c r="L39" t="n">
-        <v>48.49648839046696</v>
+        <v>48.49648839046697</v>
       </c>
       <c r="M39" t="n">
-        <v>56.59311452009444</v>
+        <v>56.59311452009447</v>
       </c>
       <c r="N39" t="n">
-        <v>58.09096586337339</v>
+        <v>58.09096586337341</v>
       </c>
       <c r="O39" t="n">
-        <v>53.14188477361197</v>
+        <v>53.14188477361199</v>
       </c>
       <c r="P39" t="n">
-        <v>42.65104760214423</v>
+        <v>42.65104760214425</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.51109581085042</v>
+        <v>28.51109581085043</v>
       </c>
       <c r="R39" t="n">
         <v>13.86761518342492</v>
       </c>
       <c r="S39" t="n">
-        <v>4.148724943614329</v>
+        <v>4.148724943614331</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9002782109047391</v>
+        <v>0.9002782109047395</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0146944212878902</v>
+        <v>0.01469442128789021</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,43 +34044,43 @@
         <v>0.1872534996904915</v>
       </c>
       <c r="H40" t="n">
-        <v>1.664853842702734</v>
+        <v>1.664853842702735</v>
       </c>
       <c r="I40" t="n">
-        <v>5.631223427055872</v>
+        <v>5.631223427055875</v>
       </c>
       <c r="J40" t="n">
-        <v>13.23882242811774</v>
+        <v>13.23882242811775</v>
       </c>
       <c r="K40" t="n">
-        <v>21.75545205494982</v>
+        <v>21.75545205494983</v>
       </c>
       <c r="L40" t="n">
-        <v>27.83948849034816</v>
+        <v>27.83948849034817</v>
       </c>
       <c r="M40" t="n">
-        <v>29.35283722875585</v>
+        <v>29.35283722875587</v>
       </c>
       <c r="N40" t="n">
-        <v>28.65489236627313</v>
+        <v>28.65489236627315</v>
       </c>
       <c r="O40" t="n">
-        <v>26.46743102897966</v>
+        <v>26.46743102897967</v>
       </c>
       <c r="P40" t="n">
-        <v>22.64745963529361</v>
+        <v>22.64745963529362</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.6799271422647</v>
+        <v>15.67992714226471</v>
       </c>
       <c r="R40" t="n">
-        <v>8.41959826790155</v>
+        <v>8.419598267901554</v>
       </c>
       <c r="S40" t="n">
-        <v>3.263317808242473</v>
+        <v>3.263317808242474</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8000831350411906</v>
+        <v>0.8000831350411909</v>
       </c>
       <c r="U40" t="n">
         <v>0.010213827255845</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4174495561852891</v>
+        <v>0.4174495561852892</v>
       </c>
       <c r="H41" t="n">
-        <v>4.275205267282592</v>
+        <v>4.275205267282594</v>
       </c>
       <c r="I41" t="n">
-        <v>16.09372401483337</v>
+        <v>16.09372401483338</v>
       </c>
       <c r="J41" t="n">
-        <v>35.43050926928121</v>
+        <v>35.43050926928122</v>
       </c>
       <c r="K41" t="n">
-        <v>53.10114898260451</v>
+        <v>53.10114898260453</v>
       </c>
       <c r="L41" t="n">
-        <v>65.87667083771005</v>
+        <v>65.87667083771008</v>
       </c>
       <c r="M41" t="n">
-        <v>73.30048938252018</v>
+        <v>73.30048938252023</v>
       </c>
       <c r="N41" t="n">
-        <v>74.48656793403165</v>
+        <v>74.48656793403168</v>
       </c>
       <c r="O41" t="n">
-        <v>70.33555390971418</v>
+        <v>70.33555390971421</v>
       </c>
       <c r="P41" t="n">
-        <v>60.02976799138985</v>
+        <v>60.02976799138987</v>
       </c>
       <c r="Q41" t="n">
-        <v>45.07985576050417</v>
+        <v>45.07985576050418</v>
       </c>
       <c r="R41" t="n">
-        <v>26.22261568372419</v>
+        <v>26.2226156837242</v>
       </c>
       <c r="S41" t="n">
-        <v>9.512631761572283</v>
+        <v>9.512631761572287</v>
       </c>
       <c r="T41" t="n">
         <v>1.827385432201104</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03339596449482312</v>
+        <v>0.03339596449482313</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.223355203575931</v>
+        <v>0.2233552035759311</v>
       </c>
       <c r="H42" t="n">
-        <v>2.157141045062281</v>
+        <v>2.157141045062282</v>
       </c>
       <c r="I42" t="n">
-        <v>7.690080473995871</v>
+        <v>7.690080473995875</v>
       </c>
       <c r="J42" t="n">
-        <v>21.10216859749619</v>
+        <v>21.1021685974962</v>
       </c>
       <c r="K42" t="n">
-        <v>36.06696723708356</v>
+        <v>36.06696723708358</v>
       </c>
       <c r="L42" t="n">
-        <v>48.49648839046696</v>
+        <v>48.49648839046697</v>
       </c>
       <c r="M42" t="n">
-        <v>56.59311452009444</v>
+        <v>56.59311452009447</v>
       </c>
       <c r="N42" t="n">
-        <v>58.09096586337339</v>
+        <v>58.09096586337341</v>
       </c>
       <c r="O42" t="n">
-        <v>53.14188477361197</v>
+        <v>53.14188477361199</v>
       </c>
       <c r="P42" t="n">
-        <v>42.65104760214423</v>
+        <v>42.65104760214425</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.51109581085042</v>
+        <v>28.51109581085043</v>
       </c>
       <c r="R42" t="n">
         <v>13.86761518342492</v>
       </c>
       <c r="S42" t="n">
-        <v>4.148724943614329</v>
+        <v>4.148724943614331</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9002782109047391</v>
+        <v>0.9002782109047395</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0146944212878902</v>
+        <v>0.01469442128789021</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,43 +34281,43 @@
         <v>0.1872534996904915</v>
       </c>
       <c r="H43" t="n">
-        <v>1.664853842702734</v>
+        <v>1.664853842702735</v>
       </c>
       <c r="I43" t="n">
-        <v>5.631223427055872</v>
+        <v>5.631223427055875</v>
       </c>
       <c r="J43" t="n">
-        <v>13.23882242811774</v>
+        <v>13.23882242811775</v>
       </c>
       <c r="K43" t="n">
-        <v>21.75545205494982</v>
+        <v>21.75545205494983</v>
       </c>
       <c r="L43" t="n">
-        <v>27.83948849034816</v>
+        <v>27.83948849034817</v>
       </c>
       <c r="M43" t="n">
-        <v>29.35283722875585</v>
+        <v>29.35283722875587</v>
       </c>
       <c r="N43" t="n">
-        <v>28.65489236627313</v>
+        <v>28.65489236627315</v>
       </c>
       <c r="O43" t="n">
-        <v>26.46743102897966</v>
+        <v>26.46743102897967</v>
       </c>
       <c r="P43" t="n">
-        <v>22.64745963529361</v>
+        <v>22.64745963529362</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.6799271422647</v>
+        <v>15.67992714226471</v>
       </c>
       <c r="R43" t="n">
-        <v>8.41959826790155</v>
+        <v>8.419598267901554</v>
       </c>
       <c r="S43" t="n">
-        <v>3.263317808242473</v>
+        <v>3.263317808242474</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8000831350411906</v>
+        <v>0.8000831350411909</v>
       </c>
       <c r="U43" t="n">
         <v>0.010213827255845</v>
@@ -34369,28 +34369,28 @@
         <v>35.43050926928122</v>
       </c>
       <c r="K44" t="n">
-        <v>53.10114898260452</v>
+        <v>53.10114898260453</v>
       </c>
       <c r="L44" t="n">
         <v>65.87667083771008</v>
       </c>
       <c r="M44" t="n">
-        <v>73.30048938252021</v>
+        <v>73.30048938252023</v>
       </c>
       <c r="N44" t="n">
-        <v>74.48656793403167</v>
+        <v>74.48656793403168</v>
       </c>
       <c r="O44" t="n">
-        <v>70.33555390971419</v>
+        <v>70.33555390971421</v>
       </c>
       <c r="P44" t="n">
-        <v>60.02976799138986</v>
+        <v>60.02976799138987</v>
       </c>
       <c r="Q44" t="n">
-        <v>45.07985576050417</v>
+        <v>45.07985576050418</v>
       </c>
       <c r="R44" t="n">
-        <v>26.22261568372419</v>
+        <v>26.2226156837242</v>
       </c>
       <c r="S44" t="n">
         <v>9.512631761572287</v>
@@ -34442,25 +34442,25 @@
         <v>2.157141045062282</v>
       </c>
       <c r="I45" t="n">
-        <v>7.690080473995874</v>
+        <v>7.690080473995875</v>
       </c>
       <c r="J45" t="n">
-        <v>21.10216859749619</v>
+        <v>21.1021685974962</v>
       </c>
       <c r="K45" t="n">
-        <v>36.06696723708357</v>
+        <v>36.06696723708358</v>
       </c>
       <c r="L45" t="n">
-        <v>48.49648839046696</v>
+        <v>48.49648839046697</v>
       </c>
       <c r="M45" t="n">
-        <v>56.59311452009445</v>
+        <v>56.59311452009447</v>
       </c>
       <c r="N45" t="n">
         <v>58.09096586337341</v>
       </c>
       <c r="O45" t="n">
-        <v>53.14188477361198</v>
+        <v>53.14188477361199</v>
       </c>
       <c r="P45" t="n">
         <v>42.65104760214425</v>
@@ -34475,7 +34475,7 @@
         <v>4.148724943614331</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9002782109047394</v>
+        <v>0.9002782109047395</v>
       </c>
       <c r="U45" t="n">
         <v>0.01469442128789021</v>
@@ -34521,7 +34521,7 @@
         <v>1.664853842702735</v>
       </c>
       <c r="I46" t="n">
-        <v>5.631223427055874</v>
+        <v>5.631223427055875</v>
       </c>
       <c r="J46" t="n">
         <v>13.23882242811775</v>
@@ -34533,28 +34533,28 @@
         <v>27.83948849034817</v>
       </c>
       <c r="M46" t="n">
-        <v>29.35283722875586</v>
+        <v>29.35283722875587</v>
       </c>
       <c r="N46" t="n">
         <v>28.65489236627315</v>
       </c>
       <c r="O46" t="n">
-        <v>26.46743102897966</v>
+        <v>26.46743102897967</v>
       </c>
       <c r="P46" t="n">
         <v>22.64745963529362</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.6799271422647</v>
+        <v>15.67992714226471</v>
       </c>
       <c r="R46" t="n">
-        <v>8.419598267901552</v>
+        <v>8.419598267901554</v>
       </c>
       <c r="S46" t="n">
         <v>3.263317808242474</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8000831350411908</v>
+        <v>0.8000831350411909</v>
       </c>
       <c r="U46" t="n">
         <v>0.010213827255845</v>
@@ -35407,22 +35407,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>118.5115880530824</v>
       </c>
       <c r="K11" t="n">
-        <v>122.0492982736046</v>
+        <v>79.26624428428046</v>
       </c>
       <c r="L11" t="n">
-        <v>48.88611160301753</v>
+        <v>48.88611160301751</v>
       </c>
       <c r="M11" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="N11" t="n">
-        <v>122.0492982736046</v>
+        <v>78.00343736515649</v>
       </c>
       <c r="O11" t="n">
-        <v>68.2319018918556</v>
+        <v>36.37425343351538</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35431,7 +35431,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>0.1749753030302905</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>39.27388527251659</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>119.764688815662</v>
+        <v>31.55186885953259</v>
       </c>
       <c r="M12" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="N12" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="P12" t="n">
-        <v>80.12873768029904</v>
+        <v>85.56614463534063</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35547,13 +35547,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>49.19982542414394</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>55.455593456408</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -35568,22 +35568,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>12.38638965524151</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>117.0418085357932</v>
       </c>
       <c r="O13" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>118.5115880530825</v>
+        <v>118.5115880530824</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>80.96375477220984</v>
+        <v>48.88611160301751</v>
       </c>
       <c r="M14" t="n">
         <v>83.56285454860299</v>
       </c>
       <c r="N14" t="n">
-        <v>78.00343736515649</v>
+        <v>90.10159694132028</v>
       </c>
       <c r="O14" t="n">
-        <v>122.0492982736046</v>
+        <v>36.37425343351538</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>105.8295037361487</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1749753030303793</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>39.27388527251659</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>31.55186885953259</v>
       </c>
       <c r="M15" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="N15" t="n">
-        <v>114.3272818606204</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="O15" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="P15" t="n">
-        <v>85.56614463534065</v>
+        <v>85.56614463534063</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35778,46 +35778,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>16.76555500988655</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>49.19982542414394</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>55.455593456408</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>25.68651404660017</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>28.6008726231175</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>29.6742566319311</v>
       </c>
       <c r="J16" t="n">
-        <v>11.75806527207483</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="M16" t="n">
-        <v>122.0492982736046</v>
+        <v>50.47404462719715</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>80.28369907349909</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>48.88611160301753</v>
+        <v>48.88611160301751</v>
       </c>
       <c r="M17" t="n">
         <v>83.56285454860299</v>
@@ -35905,19 +35905,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>93.60730859266519</v>
+        <v>85.42545174145566</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>20.78264449912465</v>
+        <v>70.73010055044004</v>
       </c>
       <c r="V17" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -35969,16 +35969,16 @@
         <v>119.764688815662</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="N18" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>122.0492982736046</v>
+        <v>116.6118913185633</v>
       </c>
       <c r="P18" t="n">
-        <v>80.12873768029904</v>
+        <v>85.56614463534063</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>80.28369907349909</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>48.88611160301753</v>
+        <v>48.88611160301751</v>
       </c>
       <c r="M20" t="n">
         <v>83.56285454860299</v>
@@ -36139,19 +36139,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>85.42545174145519</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>93.60730859266519</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>98.46087464136495</v>
       </c>
       <c r="U20" t="n">
-        <v>70.73010055044004</v>
+        <v>44.37106813136474</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36203,19 +36203,19 @@
         <v>39.27388527251659</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>114.3272818606207</v>
       </c>
       <c r="M21" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="N21" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="P21" t="n">
-        <v>77.8441282223565</v>
+        <v>85.56614463534063</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,16 +36352,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>72.10184222228969</v>
       </c>
       <c r="J23" t="n">
-        <v>43.65985254134975</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>48.88611160301753</v>
+        <v>48.88611160301751</v>
       </c>
       <c r="M23" t="n">
         <v>83.56285454860299</v>
@@ -36376,19 +36376,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>93.60730859266519</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>70.73010055044004</v>
+        <v>70.73010055043993</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>33.83647831747498</v>
+        <v>39.27388527251659</v>
       </c>
       <c r="L24" t="n">
         <v>119.764688815662</v>
       </c>
       <c r="M24" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="N24" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>80.12873768029927</v>
       </c>
       <c r="P24" t="n">
-        <v>85.56614463534065</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0462696263681</v>
+        <v>137.046269626368</v>
       </c>
       <c r="K26" t="n">
-        <v>207.5549153019834</v>
+        <v>207.5549153019833</v>
       </c>
       <c r="L26" t="n">
-        <v>261.8032688511579</v>
+        <v>261.8032688511578</v>
       </c>
       <c r="M26" t="n">
         <v>296.4800117967433</v>
@@ -36607,16 +36607,16 @@
         <v>290.9205946132968</v>
       </c>
       <c r="O26" t="n">
-        <v>249.2914106816557</v>
+        <v>249.2914106816556</v>
       </c>
       <c r="P26" t="n">
-        <v>199.3682333132221</v>
+        <v>199.368233313222</v>
       </c>
       <c r="Q26" t="n">
-        <v>124.3641853094344</v>
+        <v>124.3641853094343</v>
       </c>
       <c r="R26" t="n">
-        <v>18.70965687631526</v>
+        <v>18.7096568763159</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>134.3972494427105</v>
       </c>
       <c r="P27" t="n">
-        <v>85.56614463534065</v>
+        <v>85.56614463534063</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36738,7 +36738,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>55.03756962664407</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36756,10 +36756,10 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>181.4809472743051</v>
+        <v>181.480947274305</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>55.03756962664479</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -36847,7 +36847,7 @@
         <v>249.2914106816556</v>
       </c>
       <c r="P29" t="n">
-        <v>199.368233313222</v>
+        <v>199.368233313223</v>
       </c>
       <c r="Q29" t="n">
         <v>124.3641853094343</v>
@@ -36926,7 +36926,7 @@
         <v>134.3972494427105</v>
       </c>
       <c r="P30" t="n">
-        <v>85.56614463534065</v>
+        <v>85.56614463534063</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36969,16 +36969,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>67.73450699742955</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>71.24101603591527</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>44.22119561988578</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>48.20893820521671</v>
       </c>
       <c r="J31" t="n">
-        <v>49.33405566238824</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -37002,7 +37002,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>134.3847635619822</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37011,7 +37011,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>9.703619513865041</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37069,16 +37069,16 @@
         <v>137.046269626368</v>
       </c>
       <c r="K32" t="n">
-        <v>207.5549153019833</v>
+        <v>207.5549153019832</v>
       </c>
       <c r="L32" t="n">
-        <v>261.8032688511578</v>
+        <v>261.8032688511577</v>
       </c>
       <c r="M32" t="n">
-        <v>296.4800117967433</v>
+        <v>296.4800117967432</v>
       </c>
       <c r="N32" t="n">
-        <v>290.9205946132968</v>
+        <v>290.9205946132967</v>
       </c>
       <c r="O32" t="n">
         <v>249.2914106816556</v>
@@ -37090,7 +37090,7 @@
         <v>124.3641853094343</v>
       </c>
       <c r="R32" t="n">
-        <v>18.7096568763159</v>
+        <v>18.70965687631587</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37163,7 +37163,7 @@
         <v>134.3972494427105</v>
       </c>
       <c r="P33" t="n">
-        <v>85.56614463534065</v>
+        <v>85.56614463534063</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37200,10 +37200,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>35.30023658317214</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>46.45997627616788</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -37212,19 +37212,19 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>73.99027502969361</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>44.22119561988575</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>47.13555419640308</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.42502243999216</v>
+        <v>53.69793471145609</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -37245,10 +37245,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.10321943126398</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.703619513865013</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,40 +37300,40 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>7.497149376212221</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>172.2223462900929</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>242.7309919657081</v>
       </c>
       <c r="L35" t="n">
-        <v>182.0539737994417</v>
+        <v>296.9793455148827</v>
       </c>
       <c r="M35" t="n">
-        <v>83.56285454860294</v>
+        <v>316.4220015119756</v>
       </c>
       <c r="N35" t="n">
-        <v>78.00343736515646</v>
+        <v>78.00343736515649</v>
       </c>
       <c r="O35" t="n">
-        <v>284.4674873453805</v>
+        <v>36.37425343351538</v>
       </c>
       <c r="P35" t="n">
-        <v>234.5443099769469</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>159.5402619731592</v>
       </c>
       <c r="R35" t="n">
-        <v>53.88573354004079</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>20.82075889537844</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>25.67432494407822</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>39.27388527251657</v>
+        <v>39.27388527251659</v>
       </c>
       <c r="L36" t="n">
         <v>119.764688815662</v>
@@ -37400,7 +37400,7 @@
         <v>134.3972494427105</v>
       </c>
       <c r="P36" t="n">
-        <v>85.56614463534062</v>
+        <v>85.56614463534063</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37458,7 +37458,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>83.38501486894161</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -37476,13 +37476,13 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1.076298966987771</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>84.46131383592936</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>7.497149376212221</v>
+        <v>7.497149376212228</v>
       </c>
       <c r="J38" t="n">
-        <v>172.2223462900929</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>173.5046718015469</v>
+        <v>242.7309919657081</v>
       </c>
       <c r="L38" t="n">
-        <v>296.9793455148827</v>
+        <v>48.88611160301751</v>
       </c>
       <c r="M38" t="n">
-        <v>83.56285454860294</v>
+        <v>328.8902835902921</v>
       </c>
       <c r="N38" t="n">
-        <v>78.00343736515646</v>
+        <v>326.0966712770216</v>
       </c>
       <c r="O38" t="n">
-        <v>284.4674873453805</v>
+        <v>36.37425343351538</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>51.87609745606652</v>
       </c>
       <c r="Q38" t="n">
         <v>159.5402619731592</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>53.8857335400408</v>
       </c>
       <c r="S38" t="n">
         <v>20.82075889537844</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>39.27388527251657</v>
+        <v>39.27388527251659</v>
       </c>
       <c r="L39" t="n">
         <v>119.764688815662</v>
@@ -37637,7 +37637,7 @@
         <v>134.3972494427105</v>
       </c>
       <c r="P39" t="n">
-        <v>85.56614463534062</v>
+        <v>85.56614463534063</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37686,13 +37686,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>84.46131383592937</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>60.1090724609142</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -37728,7 +37728,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.3522413750154</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>164.7251969138807</v>
       </c>
       <c r="K41" t="n">
-        <v>235.2338425894959</v>
+        <v>196.3845477860847</v>
       </c>
       <c r="L41" t="n">
         <v>289.4821961386704</v>
       </c>
       <c r="M41" t="n">
-        <v>324.1589390842558</v>
+        <v>83.56285454860299</v>
       </c>
       <c r="N41" t="n">
-        <v>78.00343736515646</v>
+        <v>318.5995219008094</v>
       </c>
       <c r="O41" t="n">
-        <v>276.9703379691683</v>
+        <v>36.37425343351538</v>
       </c>
       <c r="P41" t="n">
-        <v>143.8277632625832</v>
+        <v>227.0471606007347</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>46.38858416382855</v>
+        <v>46.38858416382857</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>13.3236095191662</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>18.17717556786598</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>39.27388527251657</v>
+        <v>39.27388527251659</v>
       </c>
       <c r="L42" t="n">
         <v>119.764688815662</v>
@@ -37874,7 +37874,7 @@
         <v>134.3972494427105</v>
       </c>
       <c r="P42" t="n">
-        <v>85.56614463534062</v>
+        <v>85.56614463534063</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37911,7 +37911,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>62.97916387068483</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -37929,7 +37929,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>74.81448148391578</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -37953,10 +37953,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>29.55013752620139</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.70882601202194</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -37977,7 +37977,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>18.67662912741039</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>164.7251969138807</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>20.1289085663742</v>
       </c>
       <c r="L44" t="n">
-        <v>48.88611160301751</v>
+        <v>289.4821961386704</v>
       </c>
       <c r="M44" t="n">
-        <v>127.9042897377406</v>
+        <v>324.1589390842559</v>
       </c>
       <c r="N44" t="n">
         <v>318.5995219008094</v>
@@ -38032,19 +38032,19 @@
         <v>276.9703379691683</v>
       </c>
       <c r="P44" t="n">
-        <v>227.0471606007347</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>152.043112596947</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>46.38858416382856</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>13.3236095191662</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>18.17717556786598</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.27388527251658</v>
+        <v>39.27388527251659</v>
       </c>
       <c r="L45" t="n">
         <v>119.764688815662</v>
@@ -38160,7 +38160,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>28.47675351738779</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -38169,13 +38169,13 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>75.88786549272938</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>104.3646190101172</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
